--- a/KeyboardHeliFormatterS.xlsx
+++ b/KeyboardHeliFormatterS.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Main" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sec" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Code" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Shift" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ShiftL" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Code" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
   <si>
     <t xml:space="preserve">Copy this to a text file and load it through custom layout.</t>
   </si>
@@ -290,10 +292,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -304,16 +307,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="177"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="177"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -327,6 +333,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,15 +392,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -415,7 +427,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -429,19 +441,19 @@
 [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },-{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } }, { "label": "select_word" }, { "label": "delete" } ],@@ -489,7 +501,7 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" } ]@@ -504,7 +516,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -523,197 +535,197 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -732,128 +744,128 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -866,544 +878,1154 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="C1:O4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="str">
+        <f aca="false">IF(Shift!A1="","",Shift!A1)</f>
+        <v/>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f aca="false">IF(Shift!B1="","",Shift!B1)</f>
+        <v/>
+      </c>
+      <c r="C1" s="4" t="str">
+        <f aca="false">IF(Shift!C1="","",Shift!C1)</f>
+        <v>:</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f aca="false">IF(Shift!D1="","",Shift!D1)</f>
+        <v>!</v>
+      </c>
+      <c r="E1" s="4" t="str">
+        <f aca="false">IF(Shift!E1="","",Shift!E1)</f>
+        <v>@</v>
+      </c>
+      <c r="F1" s="4" t="str">
+        <f aca="false">IF(Shift!F1="","",Shift!F1)</f>
+        <v>#</v>
+      </c>
+      <c r="G1" s="4" t="str">
+        <f aca="false">IF(Shift!G1="","",Shift!G1)</f>
+        <v>$</v>
+      </c>
+      <c r="H1" s="4" t="str">
+        <f aca="false">IF(Shift!H1="","",Shift!H1)</f>
+        <v>%</v>
+      </c>
+      <c r="I1" s="4" t="str">
+        <f aca="false">IF(Shift!I1="","",Shift!I1)</f>
+        <v>^</v>
+      </c>
+      <c r="J1" s="4" t="str">
+        <f aca="false">IF(Shift!J1="","",Shift!J1)</f>
+        <v>&amp;</v>
+      </c>
+      <c r="K1" s="4" t="str">
+        <f aca="false">IF(Shift!K1="","",Shift!K1)</f>
+        <v>*</v>
+      </c>
+      <c r="L1" s="4" t="str">
+        <f aca="false">IF(Shift!L1="","",Shift!L1)</f>
+        <v>(</v>
+      </c>
+      <c r="M1" s="4" t="str">
+        <f aca="false">IF(Shift!M1="","",Shift!M1)</f>
+        <v>)</v>
+      </c>
+      <c r="N1" s="4" t="str">
+        <f aca="false">IF(Shift!N1="","",Shift!N1)</f>
+        <v>_</v>
+      </c>
+      <c r="O1" s="4" t="str">
+        <f aca="false">IF(Shift!O1="","",Shift!O1)</f>
+        <v>+</v>
+      </c>
+      <c r="P1" s="4" t="str">
+        <f aca="false">IF(Shift!P1="","",Shift!P1)</f>
+        <v/>
+      </c>
+      <c r="Q1" s="4" t="str">
+        <f aca="false">IF(Shift!Q1="","",Shift!Q1)</f>
+        <v/>
+      </c>
+      <c r="R1" s="4" t="str">
+        <f aca="false">IF(Shift!R1="","",Shift!R1)</f>
+        <v/>
+      </c>
+      <c r="S1" s="4" t="str">
+        <f aca="false">IF(Shift!S1="","",Shift!S1)</f>
+        <v/>
+      </c>
+      <c r="T1" s="4" t="str">
+        <f aca="false">IF(Shift!T1="","",Shift!T1)</f>
+        <v/>
+      </c>
+      <c r="U1" s="4" t="str">
+        <f aca="false">IF(Shift!U1="","",Shift!U1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="str">
+        <f aca="false">IF(Shift!A2="","",Shift!A2)</f>
+        <v/>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f aca="false">IF(Shift!B2="","",Shift!B2)</f>
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f aca="false">IF(Shift!C2="","",Shift!C2)</f>
+        <v/>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f aca="false">IF(Shift!D2="","",Shift!D2)</f>
+        <v/>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f aca="false">IF(Shift!E2="","",Shift!E2)</f>
+        <v/>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f aca="false">IF(Shift!F2="","",Shift!F2)</f>
+        <v/>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f aca="false">IF(Shift!G2="","",Shift!G2)</f>
+        <v/>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f aca="false">IF(Shift!H2="","",Shift!H2)</f>
+        <v/>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f aca="false">IF(Shift!I2="","",Shift!I2)</f>
+        <v/>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f aca="false">IF(Shift!J2="","",Shift!J2)</f>
+        <v/>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f aca="false">IF(Shift!K2="","",Shift!K2)</f>
+        <v/>
+      </c>
+      <c r="L2" s="4" t="str">
+        <f aca="false">IF(Shift!L2="","",Shift!L2)</f>
+        <v/>
+      </c>
+      <c r="M2" s="4" t="str">
+        <f aca="false">IF(Shift!M2="","",Shift!M2)</f>
+        <v/>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f aca="false">IF(Shift!N2="","",Shift!N2)</f>
+        <v/>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f aca="false">IF(Shift!O2="","",Shift!O2)</f>
+        <v/>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f aca="false">IF(Shift!P2="","",Shift!P2)</f>
+        <v/>
+      </c>
+      <c r="Q2" s="4" t="str">
+        <f aca="false">IF(Shift!Q2="","",Shift!Q2)</f>
+        <v/>
+      </c>
+      <c r="R2" s="4" t="str">
+        <f aca="false">IF(Shift!R2="","",Shift!R2)</f>
+        <v/>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f aca="false">IF(Shift!S2="","",Shift!S2)</f>
+        <v/>
+      </c>
+      <c r="T2" s="4" t="str">
+        <f aca="false">IF(Shift!T2="","",Shift!T2)</f>
+        <v/>
+      </c>
+      <c r="U2" s="4" t="str">
+        <f aca="false">IF(Shift!U2="","",Shift!U2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="str">
+        <f aca="false">IF(Shift!A3="","",Shift!A3)</f>
+        <v/>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f aca="false">IF(Shift!B3="","",Shift!B3)</f>
+        <v/>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f aca="false">IF(Shift!C3="","",Shift!C3)</f>
+        <v/>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f aca="false">IF(Shift!D3="","",Shift!D3)</f>
+        <v/>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f aca="false">IF(Shift!E3="","",Shift!E3)</f>
+        <v/>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f aca="false">IF(Shift!F3="","",Shift!F3)</f>
+        <v/>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f aca="false">IF(Shift!G3="","",Shift!G3)</f>
+        <v/>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f aca="false">IF(Shift!H3="","",Shift!H3)</f>
+        <v/>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f aca="false">IF(Shift!I3="","",Shift!I3)</f>
+        <v/>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f aca="false">IF(Shift!J3="","",Shift!J3)</f>
+        <v/>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f aca="false">IF(Shift!K3="","",Shift!K3)</f>
+        <v/>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f aca="false">IF(Shift!L3="","",Shift!L3)</f>
+        <v/>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f aca="false">IF(Shift!M3="","",Shift!M3)</f>
+        <v/>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f aca="false">IF(Shift!N3="","",Shift!N3)</f>
+        <v/>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f aca="false">IF(Shift!O3="","",Shift!O3)</f>
+        <v/>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f aca="false">IF(Shift!P3="","",Shift!P3)</f>
+        <v/>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f aca="false">IF(Shift!Q3="","",Shift!Q3)</f>
+        <v/>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f aca="false">IF(Shift!R3="","",Shift!R3)</f>
+        <v/>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f aca="false">IF(Shift!S3="","",Shift!S3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="4" t="str">
+        <f aca="false">IF(Shift!T3="","",Shift!T3)</f>
+        <v/>
+      </c>
+      <c r="U3" s="4" t="str">
+        <f aca="false">IF(Shift!U3="","",Shift!U3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="str">
+        <f aca="false">IF(Shift!A4="","",Shift!A4)</f>
+        <v/>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f aca="false">IF(Shift!B4="","",Shift!B4)</f>
+        <v/>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f aca="false">IF(Shift!C4="","",Shift!C4)</f>
+        <v/>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f aca="false">IF(Shift!D4="","",Shift!D4)</f>
+        <v/>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f aca="false">IF(Shift!E4="","",Shift!E4)</f>
+        <v/>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f aca="false">IF(Shift!F4="","",Shift!F4)</f>
+        <v/>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f aca="false">IF(Shift!G4="","",Shift!G4)</f>
+        <v/>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f aca="false">IF(Shift!H4="","",Shift!H4)</f>
+        <v/>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f aca="false">IF(Shift!I4="","",Shift!I4)</f>
+        <v/>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f aca="false">IF(Shift!J4="","",Shift!J4)</f>
+        <v/>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f aca="false">IF(Shift!K4="","",Shift!K4)</f>
+        <v/>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f aca="false">IF(Shift!L4="","",Shift!L4)</f>
+        <v>?</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <f aca="false">IF(Shift!M4="","",Shift!M4)</f>
+        <v/>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f aca="false">IF(Shift!N4="","",Shift!N4)</f>
+        <v/>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f aca="false">IF(Shift!O4="","",Shift!O4)</f>
+        <v/>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f aca="false">IF(Shift!P4="","",Shift!P4)</f>
+        <v/>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f aca="false">IF(Shift!Q4="","",Shift!Q4)</f>
+        <v/>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f aca="false">IF(Shift!R4="","",Shift!R4)</f>
+        <v/>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f aca="false">IF(Shift!S4="","",Shift!S4)</f>
+        <v/>
+      </c>
+      <c r="T4" s="4" t="str">
+        <f aca="false">IF(Shift!T4="","",Shift!T4)</f>
+        <v/>
+      </c>
+      <c r="U4" s="4" t="str">
+        <f aca="false">IF(Shift!U4="","",Shift!U4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="str">
+        <f aca="false">IF(Shift!A5="","",Shift!A5)</f>
+        <v/>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f aca="false">IF(Shift!B5="","",Shift!B5)</f>
+        <v/>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f aca="false">IF(Shift!C5="","",Shift!C5)</f>
+        <v/>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f aca="false">IF(Shift!D5="","",Shift!D5)</f>
+        <v/>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f aca="false">IF(Shift!E5="","",Shift!E5)</f>
+        <v/>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f aca="false">IF(Shift!F5="","",Shift!F5)</f>
+        <v/>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f aca="false">IF(Shift!G5="","",Shift!G5)</f>
+        <v/>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f aca="false">IF(Shift!H5="","",Shift!H5)</f>
+        <v/>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f aca="false">IF(Shift!I5="","",Shift!I5)</f>
+        <v/>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f aca="false">IF(Shift!J5="","",Shift!J5)</f>
+        <v/>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f aca="false">IF(Shift!K5="","",Shift!K5)</f>
+        <v/>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f aca="false">IF(Shift!L5="","",Shift!L5)</f>
+        <v/>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f aca="false">IF(Shift!M5="","",Shift!M5)</f>
+        <v/>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f aca="false">IF(Shift!N5="","",Shift!N5)</f>
+        <v/>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f aca="false">IF(Shift!O5="","",Shift!O5)</f>
+        <v/>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f aca="false">IF(Shift!P5="","",Shift!P5)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f aca="false">IF(Shift!Q5="","",Shift!Q5)</f>
+        <v/>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f aca="false">IF(Shift!R5="","",Shift!R5)</f>
+        <v/>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f aca="false">IF(Shift!S5="","",Shift!S5)</f>
+        <v/>
+      </c>
+      <c r="T5" s="4" t="str">
+        <f aca="false">IF(Shift!T5="","",Shift!T5)</f>
+        <v/>
+      </c>
+      <c r="U5" s="4" t="str">
+        <f aca="false">IF(Shift!U5="","",Shift!U5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="str">
+        <f aca="false">IF(Shift!A6="","",Shift!A6)</f>
+        <v/>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f aca="false">IF(Shift!B6="","",Shift!B6)</f>
+        <v/>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f aca="false">IF(Shift!C6="","",Shift!C6)</f>
+        <v/>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f aca="false">IF(Shift!D6="","",Shift!D6)</f>
+        <v/>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f aca="false">IF(Shift!E6="","",Shift!E6)</f>
+        <v/>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f aca="false">IF(Shift!F6="","",Shift!F6)</f>
+        <v/>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f aca="false">IF(Shift!G6="","",Shift!G6)</f>
+        <v/>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f aca="false">IF(Shift!H6="","",Shift!H6)</f>
+        <v/>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f aca="false">IF(Shift!I6="","",Shift!I6)</f>
+        <v/>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f aca="false">IF(Shift!J6="","",Shift!J6)</f>
+        <v/>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f aca="false">IF(Shift!K6="","",Shift!K6)</f>
+        <v/>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f aca="false">IF(Shift!L6="","",Shift!L6)</f>
+        <v/>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f aca="false">IF(Shift!M6="","",Shift!M6)</f>
+        <v/>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f aca="false">IF(Shift!N6="","",Shift!N6)</f>
+        <v/>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f aca="false">IF(Shift!O6="","",Shift!O6)</f>
+        <v/>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f aca="false">IF(Shift!P6="","",Shift!P6)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f aca="false">IF(Shift!Q6="","",Shift!Q6)</f>
+        <v/>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f aca="false">IF(Shift!R6="","",Shift!R6)</f>
+        <v/>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f aca="false">IF(Shift!S6="","",Shift!S6)</f>
+        <v/>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f aca="false">IF(Shift!T6="","",Shift!T6)</f>
+        <v/>
+      </c>
+      <c r="U6" s="4" t="str">
+        <f aca="false">IF(Shift!U6="","",Shift!U6)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A2:Y18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y13" activeCellId="0" sqref="Y13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="36.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="18.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="3" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="22.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="39.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="18.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="18.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="22.56"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="str">
-        <f aca="false">IF(Main!A1="","","{ ""label"": """&amp;Main!A1&amp;""""&amp;IF(Sec!A1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A1&amp;"""}]}")&amp;" },")</f>
+      <c r="B2" s="2" t="str">
+        <f aca="false">IF(Main!A1="","",IF(Shift!A1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!A1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!A1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!A1&amp;""""&amp;IF(Sec!A1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A1&amp;"""}]}")&amp;" }"&amp;IF(Shift!A1="",","," },"))</f>
         <v>{ "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} },</v>
       </c>
-      <c r="C2" s="3" t="str">
-        <f aca="false">IF(Main!B1="","","{ ""label"": """&amp;Main!B1&amp;""""&amp;IF(Sec!B1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B1&amp;"""}]}")&amp;" },")</f>
+      <c r="C2" s="2" t="str">
+        <f aca="false">IF(Main!B1="","",IF(Shift!B1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!B1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!B1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!B1&amp;""""&amp;IF(Sec!B1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B1&amp;"""}]}")&amp;" }"&amp;IF(Shift!B1="",","," },"))</f>
         <v>{ "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },</v>
       </c>
-      <c r="D2" s="3" t="str">
-        <f aca="false">IF(Main!C1="","","{ ""label"": """&amp;Main!C1&amp;""""&amp;IF(Sec!C1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": ";", "popup": {"relevant": [{"label":":"}]} },</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f aca="false">IF(Main!D1="","","{ ""label"": """&amp;Main!D1&amp;""""&amp;IF(Sec!D1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <f aca="false">IF(Main!E1="","","{ ""label"": """&amp;Main!E1&amp;""""&amp;IF(Sec!E1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },</v>
-      </c>
-      <c r="G2" s="3" t="str">
-        <f aca="false">IF(Main!F1="","","{ ""label"": """&amp;Main!F1&amp;""""&amp;IF(Sec!F1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f aca="false">IF(Main!G1="","","{ ""label"": """&amp;Main!G1&amp;""""&amp;IF(Sec!G1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },</v>
-      </c>
-      <c r="I2" s="3" t="str">
-        <f aca="false">IF(Main!H1="","","{ ""label"": """&amp;Main!H1&amp;""""&amp;IF(Sec!H1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },</v>
-      </c>
-      <c r="J2" s="3" t="str">
-        <f aca="false">IF(Main!I1="","","{ ""label"": """&amp;Main!I1&amp;""""&amp;IF(Sec!I1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },</v>
-      </c>
-      <c r="K2" s="3" t="str">
-        <f aca="false">IF(Main!J1="","","{ ""label"": """&amp;Main!J1&amp;""""&amp;IF(Sec!J1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },</v>
-      </c>
-      <c r="L2" s="3" t="str">
-        <f aca="false">IF(Main!K1="","","{ ""label"": """&amp;Main!K1&amp;""""&amp;IF(Sec!K1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },</v>
-      </c>
-      <c r="M2" s="3" t="str">
-        <f aca="false">IF(Main!L1="","","{ ""label"": """&amp;Main!L1&amp;""""&amp;IF(Sec!L1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "9", "popup": {"relevant": [{"label":"("}]} },</v>
-      </c>
-      <c r="N2" s="3" t="str">
-        <f aca="false">IF(Main!M1="","","{ ""label"": """&amp;Main!M1&amp;""""&amp;IF(Sec!M1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "0", "popup": {"relevant": [{"label":")"}]} },</v>
-      </c>
-      <c r="O2" s="3" t="str">
-        <f aca="false">IF(Main!N1="","","{ ""label"": """&amp;Main!N1&amp;""""&amp;IF(Sec!N1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },</v>
-      </c>
-      <c r="P2" s="3" t="str">
-        <f aca="false">IF(Main!O1="","","{ ""label"": """&amp;Main!O1&amp;""""&amp;IF(Sec!O1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O1&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },</v>
-      </c>
-      <c r="Q2" s="3" t="str">
-        <f aca="false">IF(Main!P1="","","{ ""label"": """&amp;Main!P1&amp;""""&amp;IF(Sec!P1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P1&amp;"""}]}")&amp;" },")</f>
+      <c r="D2" s="2" t="str">
+        <f aca="false">IF(Main!C1="","",IF(Shift!C1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!C1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!C1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!C1&amp;""""&amp;IF(Sec!C1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C1&amp;"""}]}")&amp;" }"&amp;IF(Shift!C1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f aca="false">IF(Main!D1="","",IF(Shift!D1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!D1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!D1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!D1&amp;""""&amp;IF(Sec!D1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D1&amp;"""}]}")&amp;" }"&amp;IF(Shift!D1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f aca="false">IF(Main!E1="","",IF(Shift!E1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!E1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!E1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!E1&amp;""""&amp;IF(Sec!E1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E1&amp;"""}]}")&amp;" }"&amp;IF(Shift!E1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f aca="false">IF(Main!F1="","",IF(Shift!F1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!F1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!F1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!F1&amp;""""&amp;IF(Sec!F1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F1&amp;"""}]}")&amp;" }"&amp;IF(Shift!F1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f aca="false">IF(Main!G1="","",IF(Shift!G1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!G1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!G1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!G1&amp;""""&amp;IF(Sec!G1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G1&amp;"""}]}")&amp;" }"&amp;IF(Shift!G1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f aca="false">IF(Main!H1="","",IF(Shift!H1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!H1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!H1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!H1&amp;""""&amp;IF(Sec!H1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H1&amp;"""}]}")&amp;" }"&amp;IF(Shift!H1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f aca="false">IF(Main!I1="","",IF(Shift!I1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!I1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!I1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!I1&amp;""""&amp;IF(Sec!I1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I1&amp;"""}]}")&amp;" }"&amp;IF(Shift!I1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f aca="false">IF(Main!J1="","",IF(Shift!J1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!J1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!J1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!J1&amp;""""&amp;IF(Sec!J1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J1&amp;"""}]}")&amp;" }"&amp;IF(Shift!J1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f aca="false">IF(Main!K1="","",IF(Shift!K1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!K1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!K1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!K1&amp;""""&amp;IF(Sec!K1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K1&amp;"""}]}")&amp;" }"&amp;IF(Shift!K1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f aca="false">IF(Main!L1="","",IF(Shift!L1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!L1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!L1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!L1&amp;""""&amp;IF(Sec!L1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L1&amp;"""}]}")&amp;" }"&amp;IF(Shift!L1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f aca="false">IF(Main!M1="","",IF(Shift!M1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!M1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!M1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!M1&amp;""""&amp;IF(Sec!M1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M1&amp;"""}]}")&amp;" }"&amp;IF(Shift!M1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f aca="false">IF(Main!N1="","",IF(Shift!N1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!N1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!N1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!N1&amp;""""&amp;IF(Sec!N1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N1&amp;"""}]}")&amp;" }"&amp;IF(Shift!N1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f aca="false">IF(Main!O1="","",IF(Shift!O1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!O1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!O1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!O1&amp;""""&amp;IF(Sec!O1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O1&amp;"""}]}")&amp;" }"&amp;IF(Shift!O1="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } },</v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f aca="false">IF(Main!P1="","",IF(Shift!P1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!P1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!P1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!P1&amp;""""&amp;IF(Sec!P1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P1&amp;"""}]}")&amp;" }"&amp;IF(Shift!P1="",","," },"))</f>
         <v>{ "label": "select_word" },</v>
       </c>
-      <c r="R2" s="3" t="str">
-        <f aca="false">IF(Main!Q1="","","{ ""label"": """&amp;Main!Q1&amp;""""&amp;IF(Sec!Q1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q1&amp;"""}]}")&amp;" },")</f>
+      <c r="R2" s="2" t="str">
+        <f aca="false">IF(Main!Q1="","",IF(Shift!Q1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!Q1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!Q1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!Q1&amp;""""&amp;IF(Sec!Q1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q1&amp;"""}]}")&amp;" }"&amp;IF(Shift!Q1="",","," },"))</f>
         <v>{ "label": "delete" },</v>
       </c>
-      <c r="S2" s="3" t="str">
-        <f aca="false">IF(Main!R1="","","{ ""label"": """&amp;Main!R1&amp;""""&amp;IF(Sec!R1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R1&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="T2" s="3" t="str">
-        <f aca="false">IF(Main!S1="","","{ ""label"": """&amp;Main!S1&amp;""""&amp;IF(Sec!S1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S1&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="U2" s="3" t="str">
-        <f aca="false">IF(Main!T1="","","{ ""label"": """&amp;Main!T1&amp;""""&amp;IF(Sec!T1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T1&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="V2" s="3" t="str">
-        <f aca="false">IF(Main!U1="","","{ ""label"": """&amp;Main!U1&amp;""""&amp;IF(Sec!U1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U1&amp;"""}]}")&amp;" },")</f>
+      <c r="S2" s="2" t="str">
+        <f aca="false">IF(Main!R1="","",IF(Shift!R1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!R1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!R1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!R1&amp;""""&amp;IF(Sec!R1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R1&amp;"""}]}")&amp;" }"&amp;IF(Shift!R1="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="T2" s="2" t="str">
+        <f aca="false">IF(Main!S1="","",IF(Shift!S1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!S1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!S1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!S1&amp;""""&amp;IF(Sec!S1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S1&amp;"""}]}")&amp;" }"&amp;IF(Shift!S1="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="U2" s="2" t="str">
+        <f aca="false">IF(Main!T1="","",IF(Shift!T1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!T1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!T1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!T1&amp;""""&amp;IF(Sec!T1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T1&amp;"""}]}")&amp;" }"&amp;IF(Shift!T1="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="V2" s="2" t="str">
+        <f aca="false">IF(Main!U1="","",IF(Shift!U1="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!U1&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!U1&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!U1&amp;""""&amp;IF(Sec!U1="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U1&amp;"""}]}")&amp;" }"&amp;IF(Shift!U1="",","," },"))</f>
         <v/>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="str">
-        <f aca="false">IF(Main!A2="","","{ ""label"": """&amp;Main!A2&amp;""""&amp;IF(Sec!A2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A2&amp;"""}]}")&amp;" },")</f>
+      <c r="B3" s="2" t="str">
+        <f aca="false">IF(Main!A2="","",IF(Shift!A2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!A2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!A2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!A2&amp;""""&amp;IF(Sec!A2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A2&amp;"""}]}")&amp;" }"&amp;IF(Shift!A2="",","," },"))</f>
         <v>{ "label": "copy", "popup": {"relevant": [{"label":"select_all"}]} },</v>
       </c>
-      <c r="C3" s="3" t="str">
-        <f aca="false">IF(Main!B2="","","{ ""label"": """&amp;Main!B2&amp;""""&amp;IF(Sec!B2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B2&amp;"""}]}")&amp;" },")</f>
+      <c r="C3" s="2" t="str">
+        <f aca="false">IF(Main!B2="","",IF(Shift!B2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!B2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!B2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!B2&amp;""""&amp;IF(Sec!B2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B2&amp;"""}]}")&amp;" }"&amp;IF(Shift!B2="",","," },"))</f>
         <v>{ "label": "paste", "popup": {"relevant": [{"label":"clipboard"}]} },</v>
       </c>
-      <c r="D3" s="3" t="str">
-        <f aca="false">IF(Main!C2="","","{ ""label"": """&amp;Main!C2&amp;""""&amp;IF(Sec!C2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C2&amp;"""}]}")&amp;" },")</f>
+      <c r="D3" s="2" t="str">
+        <f aca="false">IF(Main!C2="","",IF(Shift!C2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!C2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!C2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!C2&amp;""""&amp;IF(Sec!C2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C2&amp;"""}]}")&amp;" }"&amp;IF(Shift!C2="",","," },"))</f>
         <v>{ "label": "q", "popup": {"relevant": [{"label":"~"}]} },</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f aca="false">IF(Main!D2="","","{ ""label"": """&amp;Main!D2&amp;""""&amp;IF(Sec!D2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D2&amp;"""}]}")&amp;" },")</f>
+      <c r="E3" s="2" t="str">
+        <f aca="false">IF(Main!D2="","",IF(Shift!D2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!D2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!D2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!D2&amp;""""&amp;IF(Sec!D2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D2&amp;"""}]}")&amp;" }"&amp;IF(Shift!D2="",","," },"))</f>
         <v>{ "label": "w", "popup": {"relevant": [{"label":"`"}]} },</v>
       </c>
-      <c r="F3" s="3" t="str">
-        <f aca="false">IF(Main!E2="","","{ ""label"": """&amp;Main!E2&amp;""""&amp;IF(Sec!E2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E2&amp;"""}]}")&amp;" },")</f>
+      <c r="F3" s="2" t="str">
+        <f aca="false">IF(Main!E2="","",IF(Shift!E2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!E2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!E2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!E2&amp;""""&amp;IF(Sec!E2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E2&amp;"""}]}")&amp;" }"&amp;IF(Shift!E2="",","," },"))</f>
         <v>{ "label": "e", "popup": {"relevant": [{"label":"{"}]} },</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f aca="false">IF(Main!F2="","","{ ""label"": """&amp;Main!F2&amp;""""&amp;IF(Sec!F2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F2&amp;"""}]}")&amp;" },")</f>
+      <c r="G3" s="2" t="str">
+        <f aca="false">IF(Main!F2="","",IF(Shift!F2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!F2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!F2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!F2&amp;""""&amp;IF(Sec!F2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F2&amp;"""}]}")&amp;" }"&amp;IF(Shift!F2="",","," },"))</f>
         <v>{ "label": "r", "popup": {"relevant": [{"label":"}"}]} },</v>
       </c>
-      <c r="H3" s="3" t="str">
-        <f aca="false">IF(Main!G2="","","{ ""label"": """&amp;Main!G2&amp;""""&amp;IF(Sec!G2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G2&amp;"""}]}")&amp;" },")</f>
+      <c r="H3" s="2" t="str">
+        <f aca="false">IF(Main!G2="","",IF(Shift!G2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!G2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!G2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!G2&amp;""""&amp;IF(Sec!G2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G2&amp;"""}]}")&amp;" }"&amp;IF(Shift!G2="",","," },"))</f>
         <v>{ "label": "t" },</v>
       </c>
-      <c r="I3" s="3" t="str">
-        <f aca="false">IF(Main!H2="","","{ ""label"": """&amp;Main!H2&amp;""""&amp;IF(Sec!H2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H2&amp;"""}]}")&amp;" },")</f>
+      <c r="I3" s="2" t="str">
+        <f aca="false">IF(Main!H2="","",IF(Shift!H2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!H2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!H2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!H2&amp;""""&amp;IF(Sec!H2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H2&amp;"""}]}")&amp;" }"&amp;IF(Shift!H2="",","," },"))</f>
         <v>{ "label": "y" },</v>
       </c>
-      <c r="J3" s="3" t="str">
-        <f aca="false">IF(Main!I2="","","{ ""label"": """&amp;Main!I2&amp;""""&amp;IF(Sec!I2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I2&amp;"""}]}")&amp;" },")</f>
+      <c r="J3" s="2" t="str">
+        <f aca="false">IF(Main!I2="","",IF(Shift!I2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!I2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!I2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!I2&amp;""""&amp;IF(Sec!I2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I2&amp;"""}]}")&amp;" }"&amp;IF(Shift!I2="",","," },"))</f>
         <v>{ "label": "u" },</v>
       </c>
-      <c r="K3" s="3" t="str">
-        <f aca="false">IF(Main!J2="","","{ ""label"": """&amp;Main!J2&amp;""""&amp;IF(Sec!J2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J2&amp;"""}]}")&amp;" },")</f>
+      <c r="K3" s="2" t="str">
+        <f aca="false">IF(Main!J2="","",IF(Shift!J2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!J2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!J2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!J2&amp;""""&amp;IF(Sec!J2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J2&amp;"""}]}")&amp;" }"&amp;IF(Shift!J2="",","," },"))</f>
         <v>{ "label": "i" },</v>
       </c>
-      <c r="L3" s="3" t="str">
-        <f aca="false">IF(Main!K2="","","{ ""label"": """&amp;Main!K2&amp;""""&amp;IF(Sec!K2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K2&amp;"""}]}")&amp;" },")</f>
+      <c r="L3" s="2" t="str">
+        <f aca="false">IF(Main!K2="","",IF(Shift!K2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!K2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!K2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!K2&amp;""""&amp;IF(Sec!K2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K2&amp;"""}]}")&amp;" }"&amp;IF(Shift!K2="",","," },"))</f>
         <v>{ "label": "o" },</v>
       </c>
-      <c r="M3" s="3" t="str">
-        <f aca="false">IF(Main!L2="","","{ ""label"": """&amp;Main!L2&amp;""""&amp;IF(Sec!L2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L2&amp;"""}]}")&amp;" },")</f>
+      <c r="M3" s="2" t="str">
+        <f aca="false">IF(Main!L2="","",IF(Shift!L2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!L2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!L2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!L2&amp;""""&amp;IF(Sec!L2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L2&amp;"""}]}")&amp;" }"&amp;IF(Shift!L2="",","," },"))</f>
         <v>{ "label": "p" },</v>
       </c>
-      <c r="N3" s="3" t="str">
-        <f aca="false">IF(Main!M2="","","{ ""label"": """&amp;Main!M2&amp;""""&amp;IF(Sec!M2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M2&amp;"""}]}")&amp;" },")</f>
+      <c r="N3" s="2" t="str">
+        <f aca="false">IF(Main!M2="","",IF(Shift!M2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!M2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!M2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!M2&amp;""""&amp;IF(Sec!M2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M2&amp;"""}]}")&amp;" }"&amp;IF(Shift!M2="",","," },"))</f>
         <v>{ "label": "up" },</v>
       </c>
-      <c r="O3" s="3" t="str">
-        <f aca="false">IF(Main!N2="","","{ ""label"": """&amp;Main!N2&amp;""""&amp;IF(Sec!N2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N2&amp;"""}]}")&amp;" },")</f>
+      <c r="O3" s="2" t="str">
+        <f aca="false">IF(Main!N2="","",IF(Shift!N2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!N2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!N2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!N2&amp;""""&amp;IF(Sec!N2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N2&amp;"""}]}")&amp;" }"&amp;IF(Shift!N2="",","," },"))</f>
         <v>{ "label": "action" },</v>
       </c>
-      <c r="P3" s="3" t="str">
-        <f aca="false">IF(Main!O2="","","{ ""label"": """&amp;Main!O2&amp;""""&amp;IF(Sec!O2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O2&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="Q3" s="3" t="str">
-        <f aca="false">IF(Main!P2="","","{ ""label"": """&amp;Main!P2&amp;""""&amp;IF(Sec!P2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P2&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="R3" s="3" t="str">
-        <f aca="false">IF(Main!Q2="","","{ ""label"": """&amp;Main!Q2&amp;""""&amp;IF(Sec!Q2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q2&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="S3" s="3" t="str">
-        <f aca="false">IF(Main!R2="","","{ ""label"": """&amp;Main!R2&amp;""""&amp;IF(Sec!R2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R2&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="T3" s="3" t="str">
-        <f aca="false">IF(Main!S2="","","{ ""label"": """&amp;Main!S2&amp;""""&amp;IF(Sec!S2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S2&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="U3" s="3" t="str">
-        <f aca="false">IF(Main!T2="","","{ ""label"": """&amp;Main!T2&amp;""""&amp;IF(Sec!T2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T2&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="V3" s="3" t="str">
-        <f aca="false">IF(Main!U2="","","{ ""label"": """&amp;Main!U2&amp;""""&amp;IF(Sec!U2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U2&amp;"""}]}")&amp;" },")</f>
+      <c r="P3" s="2" t="str">
+        <f aca="false">IF(Main!O2="","",IF(Shift!O2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!O2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!O2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!O2&amp;""""&amp;IF(Sec!O2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O2&amp;"""}]}")&amp;" }"&amp;IF(Shift!O2="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f aca="false">IF(Main!P2="","",IF(Shift!P2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!P2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!P2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!P2&amp;""""&amp;IF(Sec!P2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P2&amp;"""}]}")&amp;" }"&amp;IF(Shift!P2="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f aca="false">IF(Main!Q2="","",IF(Shift!Q2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!Q2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!Q2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!Q2&amp;""""&amp;IF(Sec!Q2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q2&amp;"""}]}")&amp;" }"&amp;IF(Shift!Q2="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="S3" s="2" t="str">
+        <f aca="false">IF(Main!R2="","",IF(Shift!R2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!R2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!R2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!R2&amp;""""&amp;IF(Sec!R2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R2&amp;"""}]}")&amp;" }"&amp;IF(Shift!R2="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="T3" s="2" t="str">
+        <f aca="false">IF(Main!S2="","",IF(Shift!S2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!S2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!S2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!S2&amp;""""&amp;IF(Sec!S2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S2&amp;"""}]}")&amp;" }"&amp;IF(Shift!S2="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="U3" s="2" t="str">
+        <f aca="false">IF(Main!T2="","",IF(Shift!T2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!T2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!T2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!T2&amp;""""&amp;IF(Sec!T2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T2&amp;"""}]}")&amp;" }"&amp;IF(Shift!T2="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="V3" s="2" t="str">
+        <f aca="false">IF(Main!U2="","",IF(Shift!U2="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!U2&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!U2&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!U2&amp;""""&amp;IF(Sec!U2="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U2&amp;"""}]}")&amp;" }"&amp;IF(Shift!U2="",","," },"))</f>
         <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="str">
-        <f aca="false">IF(Main!A3="","","{ ""label"": """&amp;Main!A3&amp;""""&amp;IF(Sec!A3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A3&amp;"""}]}")&amp;" },")</f>
+      <c r="B4" s="2" t="str">
+        <f aca="false">IF(Main!A3="","",IF(Shift!A3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!A3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!A3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!A3&amp;""""&amp;IF(Sec!A3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A3&amp;"""}]}")&amp;" }"&amp;IF(Shift!A3="",","," },"))</f>
         <v>{ "label": "'", "popup": {"relevant": [{"label":"\""}]} },</v>
       </c>
-      <c r="C4" s="3" t="str">
-        <f aca="false">IF(Main!B3="","","{ ""label"": """&amp;Main!B3&amp;""""&amp;IF(Sec!B3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B3&amp;"""}]}")&amp;" },")</f>
+      <c r="C4" s="2" t="str">
+        <f aca="false">IF(Main!B3="","",IF(Shift!B3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!B3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!B3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!B3&amp;""""&amp;IF(Sec!B3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B3&amp;"""}]}")&amp;" }"&amp;IF(Shift!B3="",","," },"))</f>
         <v>{ "label": "\\", "popup": {"relevant": [{"label":"|"}]} },</v>
       </c>
-      <c r="D4" s="3" t="str">
-        <f aca="false">IF(Main!C3="","","{ ""label"": """&amp;Main!C3&amp;""""&amp;IF(Sec!C3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C3&amp;"""}]}")&amp;" },")</f>
+      <c r="D4" s="2" t="str">
+        <f aca="false">IF(Main!C3="","",IF(Shift!C3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!C3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!C3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!C3&amp;""""&amp;IF(Sec!C3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C3&amp;"""}]}")&amp;" }"&amp;IF(Shift!C3="",","," },"))</f>
         <v>{ "label": "a", "popup": {"relevant": [{"label":"•"}]} },</v>
       </c>
-      <c r="E4" s="3" t="str">
-        <f aca="false">IF(Main!D3="","","{ ""label"": """&amp;Main!D3&amp;""""&amp;IF(Sec!D3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D3&amp;"""}]}")&amp;" },")</f>
+      <c r="E4" s="2" t="str">
+        <f aca="false">IF(Main!D3="","",IF(Shift!D3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!D3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!D3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!D3&amp;""""&amp;IF(Sec!D3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D3&amp;"""}]}")&amp;" }"&amp;IF(Shift!D3="",","," },"))</f>
         <v>{ "label": "s", "popup": {"relevant": [{"label":"["}]} },</v>
       </c>
-      <c r="F4" s="3" t="str">
-        <f aca="false">IF(Main!E3="","","{ ""label"": """&amp;Main!E3&amp;""""&amp;IF(Sec!E3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E3&amp;"""}]}")&amp;" },")</f>
+      <c r="F4" s="2" t="str">
+        <f aca="false">IF(Main!E3="","",IF(Shift!E3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!E3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!E3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!E3&amp;""""&amp;IF(Sec!E3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E3&amp;"""}]}")&amp;" }"&amp;IF(Shift!E3="",","," },"))</f>
         <v>{ "label": "d", "popup": {"relevant": [{"label":"]"}]} },</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f aca="false">IF(Main!F3="","","{ ""label"": """&amp;Main!F3&amp;""""&amp;IF(Sec!F3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F3&amp;"""}]}")&amp;" },")</f>
+      <c r="G4" s="2" t="str">
+        <f aca="false">IF(Main!F3="","",IF(Shift!F3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!F3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!F3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!F3&amp;""""&amp;IF(Sec!F3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F3&amp;"""}]}")&amp;" }"&amp;IF(Shift!F3="",","," },"))</f>
         <v>{ "label": "f" },</v>
       </c>
-      <c r="H4" s="3" t="str">
-        <f aca="false">IF(Main!G3="","","{ ""label"": """&amp;Main!G3&amp;""""&amp;IF(Sec!G3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G3&amp;"""}]}")&amp;" },")</f>
+      <c r="H4" s="2" t="str">
+        <f aca="false">IF(Main!G3="","",IF(Shift!G3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!G3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!G3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!G3&amp;""""&amp;IF(Sec!G3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G3&amp;"""}]}")&amp;" }"&amp;IF(Shift!G3="",","," },"))</f>
         <v>{ "label": "g" },</v>
       </c>
-      <c r="I4" s="3" t="str">
-        <f aca="false">IF(Main!H3="","","{ ""label"": """&amp;Main!H3&amp;""""&amp;IF(Sec!H3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H3&amp;"""}]}")&amp;" },")</f>
+      <c r="I4" s="2" t="str">
+        <f aca="false">IF(Main!H3="","",IF(Shift!H3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!H3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!H3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!H3&amp;""""&amp;IF(Sec!H3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H3&amp;"""}]}")&amp;" }"&amp;IF(Shift!H3="",","," },"))</f>
         <v>{ "label": "h" },</v>
       </c>
-      <c r="J4" s="3" t="str">
-        <f aca="false">IF(Main!I3="","","{ ""label"": """&amp;Main!I3&amp;""""&amp;IF(Sec!I3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I3&amp;"""}]}")&amp;" },")</f>
+      <c r="J4" s="2" t="str">
+        <f aca="false">IF(Main!I3="","",IF(Shift!I3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!I3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!I3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!I3&amp;""""&amp;IF(Sec!I3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I3&amp;"""}]}")&amp;" }"&amp;IF(Shift!I3="",","," },"))</f>
         <v>{ "label": "j" },</v>
       </c>
-      <c r="K4" s="3" t="str">
-        <f aca="false">IF(Main!J3="","","{ ""label"": """&amp;Main!J3&amp;""""&amp;IF(Sec!J3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J3&amp;"""}]}")&amp;" },")</f>
+      <c r="K4" s="2" t="str">
+        <f aca="false">IF(Main!J3="","",IF(Shift!J3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!J3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!J3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!J3&amp;""""&amp;IF(Sec!J3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J3&amp;"""}]}")&amp;" }"&amp;IF(Shift!J3="",","," },"))</f>
         <v>{ "label": "k" },</v>
       </c>
-      <c r="L4" s="3" t="str">
-        <f aca="false">IF(Main!K3="","","{ ""label"": """&amp;Main!K3&amp;""""&amp;IF(Sec!K3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K3&amp;"""}]}")&amp;" },")</f>
+      <c r="L4" s="2" t="str">
+        <f aca="false">IF(Main!K3="","",IF(Shift!K3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!K3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!K3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!K3&amp;""""&amp;IF(Sec!K3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K3&amp;"""}]}")&amp;" }"&amp;IF(Shift!K3="",","," },"))</f>
         <v>{ "label": "l" },</v>
       </c>
-      <c r="M4" s="3" t="str">
-        <f aca="false">IF(Main!L3="","","{ ""label"": """&amp;Main!L3&amp;""""&amp;IF(Sec!L3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L3&amp;"""}]}")&amp;" },")</f>
+      <c r="M4" s="2" t="str">
+        <f aca="false">IF(Main!L3="","",IF(Shift!L3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!L3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!L3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!L3&amp;""""&amp;IF(Sec!L3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L3&amp;"""}]}")&amp;" }"&amp;IF(Shift!L3="",","," },"))</f>
         <v>{ "label": "left" },</v>
       </c>
-      <c r="N4" s="3" t="str">
-        <f aca="false">IF(Main!M3="","","{ ""label"": """&amp;Main!M3&amp;""""&amp;IF(Sec!M3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M3&amp;"""}]}")&amp;" },")</f>
+      <c r="N4" s="2" t="str">
+        <f aca="false">IF(Main!M3="","",IF(Shift!M3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!M3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!M3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!M3&amp;""""&amp;IF(Sec!M3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M3&amp;"""}]}")&amp;" }"&amp;IF(Shift!M3="",","," },"))</f>
         <v>{ "label": "right" },</v>
       </c>
-      <c r="O4" s="3" t="str">
-        <f aca="false">IF(Main!N3="","","{ ""label"": """&amp;Main!N3&amp;""""&amp;IF(Sec!N3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N3&amp;"""}]}")&amp;" },")</f>
+      <c r="O4" s="2" t="str">
+        <f aca="false">IF(Main!N3="","",IF(Shift!N3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!N3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!N3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!N3&amp;""""&amp;IF(Sec!N3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N3&amp;"""}]}")&amp;" }"&amp;IF(Shift!N3="",","," },"))</f>
         <v>{ "label": "action" },</v>
       </c>
-      <c r="P4" s="3" t="str">
-        <f aca="false">IF(Main!O3="","","{ ""label"": """&amp;Main!O3&amp;""""&amp;IF(Sec!O3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O3&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="Q4" s="3" t="str">
-        <f aca="false">IF(Main!P3="","","{ ""label"": """&amp;Main!P3&amp;""""&amp;IF(Sec!P3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P3&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="R4" s="3" t="str">
-        <f aca="false">IF(Main!Q3="","","{ ""label"": """&amp;Main!Q3&amp;""""&amp;IF(Sec!Q3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q3&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="S4" s="3" t="str">
-        <f aca="false">IF(Main!R3="","","{ ""label"": """&amp;Main!R3&amp;""""&amp;IF(Sec!R3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R3&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="T4" s="3" t="str">
-        <f aca="false">IF(Main!S3="","","{ ""label"": """&amp;Main!S3&amp;""""&amp;IF(Sec!S3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S3&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="U4" s="3" t="str">
-        <f aca="false">IF(Main!T3="","","{ ""label"": """&amp;Main!T3&amp;""""&amp;IF(Sec!T3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T3&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="V4" s="3" t="str">
-        <f aca="false">IF(Main!U3="","","{ ""label"": """&amp;Main!U3&amp;""""&amp;IF(Sec!U3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U3&amp;"""}]}")&amp;" },")</f>
+      <c r="P4" s="2" t="str">
+        <f aca="false">IF(Main!O3="","",IF(Shift!O3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!O3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!O3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!O3&amp;""""&amp;IF(Sec!O3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O3&amp;"""}]}")&amp;" }"&amp;IF(Shift!O3="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f aca="false">IF(Main!P3="","",IF(Shift!P3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!P3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!P3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!P3&amp;""""&amp;IF(Sec!P3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P3&amp;"""}]}")&amp;" }"&amp;IF(Shift!P3="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f aca="false">IF(Main!Q3="","",IF(Shift!Q3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!Q3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!Q3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!Q3&amp;""""&amp;IF(Sec!Q3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q3&amp;"""}]}")&amp;" }"&amp;IF(Shift!Q3="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f aca="false">IF(Main!R3="","",IF(Shift!R3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!R3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!R3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!R3&amp;""""&amp;IF(Sec!R3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R3&amp;"""}]}")&amp;" }"&amp;IF(Shift!R3="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f aca="false">IF(Main!S3="","",IF(Shift!S3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!S3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!S3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!S3&amp;""""&amp;IF(Sec!S3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S3&amp;"""}]}")&amp;" }"&amp;IF(Shift!S3="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="U4" s="2" t="str">
+        <f aca="false">IF(Main!T3="","",IF(Shift!T3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!T3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!T3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!T3&amp;""""&amp;IF(Sec!T3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T3&amp;"""}]}")&amp;" }"&amp;IF(Shift!T3="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="V4" s="2" t="str">
+        <f aca="false">IF(Main!U3="","",IF(Shift!U3="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!U3&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!U3&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!U3&amp;""""&amp;IF(Sec!U3="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U3&amp;"""}]}")&amp;" }"&amp;IF(Shift!U3="",","," },"))</f>
         <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="str">
-        <f aca="false">IF(Main!A4="","","{ ""label"": """&amp;Main!A4&amp;""""&amp;IF(Sec!A4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A4&amp;"""}]}")&amp;" },")</f>
+      <c r="B5" s="2" t="str">
+        <f aca="false">IF(Main!A4="","",IF(Shift!A4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!A4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!A4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!A4&amp;""""&amp;IF(Sec!A4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A4&amp;"""}]}")&amp;" }"&amp;IF(Shift!A4="",","," },"))</f>
         <v>{ "label": "shift" },</v>
       </c>
-      <c r="C5" s="3" t="str">
-        <f aca="false">IF(Main!B4="","","{ ""label"": """&amp;Main!B4&amp;""""&amp;IF(Sec!B4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B4&amp;"""}]}")&amp;" },")</f>
+      <c r="C5" s="2" t="str">
+        <f aca="false">IF(Main!B4="","",IF(Shift!B4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!B4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!B4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!B4&amp;""""&amp;IF(Sec!B4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B4&amp;"""}]}")&amp;" }"&amp;IF(Shift!B4="",","," },"))</f>
         <v>{ "label": "tab" },</v>
       </c>
-      <c r="D5" s="3" t="str">
-        <f aca="false">IF(Main!C4="","","{ ""label"": """&amp;Main!C4&amp;""""&amp;IF(Sec!C4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C4&amp;"""}]}")&amp;" },")</f>
+      <c r="D5" s="2" t="str">
+        <f aca="false">IF(Main!C4="","",IF(Shift!C4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!C4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!C4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!C4&amp;""""&amp;IF(Sec!C4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C4&amp;"""}]}")&amp;" }"&amp;IF(Shift!C4="",","," },"))</f>
         <v>{ "label": "\/", "popup": {"relevant": [{"label":"&lt;"}]} },</v>
       </c>
-      <c r="E5" s="3" t="str">
-        <f aca="false">IF(Main!D4="","","{ ""label"": """&amp;Main!D4&amp;""""&amp;IF(Sec!D4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D4&amp;"""}]}")&amp;" },")</f>
+      <c r="E5" s="2" t="str">
+        <f aca="false">IF(Main!D4="","",IF(Shift!D4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!D4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!D4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!D4&amp;""""&amp;IF(Sec!D4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D4&amp;"""}]}")&amp;" }"&amp;IF(Shift!D4="",","," },"))</f>
         <v>{ "label": "z", "popup": {"relevant": [{"label":"&gt;"}]} },</v>
       </c>
-      <c r="F5" s="3" t="str">
-        <f aca="false">IF(Main!E4="","","{ ""label"": """&amp;Main!E4&amp;""""&amp;IF(Sec!E4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E4&amp;"""}]}")&amp;" },")</f>
+      <c r="F5" s="2" t="str">
+        <f aca="false">IF(Main!E4="","",IF(Shift!E4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!E4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!E4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!E4&amp;""""&amp;IF(Sec!E4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E4&amp;"""}]}")&amp;" }"&amp;IF(Shift!E4="",","," },"))</f>
         <v>{ "label": "x", "popup": {"relevant": [{"label":"≥"}]} },</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f aca="false">IF(Main!F4="","","{ ""label"": """&amp;Main!F4&amp;""""&amp;IF(Sec!F4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F4&amp;"""}]}")&amp;" },")</f>
+      <c r="G5" s="2" t="str">
+        <f aca="false">IF(Main!F4="","",IF(Shift!F4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!F4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!F4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!F4&amp;""""&amp;IF(Sec!F4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F4&amp;"""}]}")&amp;" }"&amp;IF(Shift!F4="",","," },"))</f>
         <v>{ "label": "c", "popup": {"relevant": [{"label":"≤"}]} },</v>
       </c>
-      <c r="H5" s="3" t="str">
-        <f aca="false">IF(Main!G4="","","{ ""label"": """&amp;Main!G4&amp;""""&amp;IF(Sec!G4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G4&amp;"""}]}")&amp;" },")</f>
+      <c r="H5" s="2" t="str">
+        <f aca="false">IF(Main!G4="","",IF(Shift!G4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!G4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!G4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!G4&amp;""""&amp;IF(Sec!G4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G4&amp;"""}]}")&amp;" }"&amp;IF(Shift!G4="",","," },"))</f>
         <v>{ "label": "v", "popup": {"relevant": [{"label":"≠"}]} },</v>
       </c>
-      <c r="I5" s="3" t="str">
-        <f aca="false">IF(Main!H4="","","{ ""label"": """&amp;Main!H4&amp;""""&amp;IF(Sec!H4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H4&amp;"""}]}")&amp;" },")</f>
+      <c r="I5" s="2" t="str">
+        <f aca="false">IF(Main!H4="","",IF(Shift!H4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!H4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!H4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!H4&amp;""""&amp;IF(Sec!H4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H4&amp;"""}]}")&amp;" }"&amp;IF(Shift!H4="",","," },"))</f>
         <v>{ "label": "b", "popup": {"relevant": [{"label":"⋅"}]} },</v>
       </c>
-      <c r="J5" s="3" t="str">
-        <f aca="false">IF(Main!I4="","","{ ""label"": """&amp;Main!I4&amp;""""&amp;IF(Sec!I4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I4&amp;"""}]}")&amp;" },")</f>
+      <c r="J5" s="2" t="str">
+        <f aca="false">IF(Main!I4="","",IF(Shift!I4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!I4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!I4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!I4&amp;""""&amp;IF(Sec!I4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I4&amp;"""}]}")&amp;" }"&amp;IF(Shift!I4="",","," },"))</f>
         <v>{ "label": "n", "popup": {"relevant": [{"label":"±"}]} },</v>
       </c>
-      <c r="K5" s="3" t="str">
-        <f aca="false">IF(Main!J4="","","{ ""label"": """&amp;Main!J4&amp;""""&amp;IF(Sec!J4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J4&amp;"""}]}")&amp;" },")</f>
+      <c r="K5" s="2" t="str">
+        <f aca="false">IF(Main!J4="","",IF(Shift!J4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!J4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!J4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!J4&amp;""""&amp;IF(Sec!J4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J4&amp;"""}]}")&amp;" }"&amp;IF(Shift!J4="",","," },"))</f>
         <v>{ "label": "m", "popup": {"relevant": [{"label":"$$$"}]} },</v>
       </c>
-      <c r="L5" s="3" t="str">
-        <f aca="false">IF(Main!K4="","","{ ""label"": """&amp;Main!K4&amp;""""&amp;IF(Sec!K4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K4&amp;"""}]}")&amp;" },")</f>
+      <c r="L5" s="2" t="str">
+        <f aca="false">IF(Main!K4="","",IF(Shift!K4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!K4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!K4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!K4&amp;""""&amp;IF(Sec!K4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K4&amp;"""}]}")&amp;" }"&amp;IF(Shift!K4="",","," },"))</f>
         <v>{ "label": "-", "popup": {"relevant": [{"label":"–"}]} },</v>
       </c>
-      <c r="M5" s="3" t="str">
-        <f aca="false">IF(Main!L4="","","{ ""label"": """&amp;Main!L4&amp;""""&amp;IF(Sec!L4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L4&amp;"""}]}")&amp;" },")</f>
-        <v>{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },</v>
-      </c>
-      <c r="N5" s="3" t="str">
-        <f aca="false">IF(Main!M4="","","{ ""label"": """&amp;Main!M4&amp;""""&amp;IF(Sec!M4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M4&amp;"""}]}")&amp;" },")</f>
+      <c r="M5" s="2" t="str">
+        <f aca="false">IF(Main!L4="","",IF(Shift!L4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!L4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!L4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!L4&amp;""""&amp;IF(Sec!L4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L4&amp;"""}]}")&amp;" }"&amp;IF(Shift!L4="",","," },"))</f>
+        <v>{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } },</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f aca="false">IF(Main!M4="","",IF(Shift!M4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!M4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!M4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!M4&amp;""""&amp;IF(Sec!M4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M4&amp;"""}]}")&amp;" }"&amp;IF(Shift!M4="",","," },"))</f>
         <v>{ "label": "down" },</v>
       </c>
-      <c r="O5" s="3" t="str">
-        <f aca="false">IF(Main!N4="","","{ ""label"": """&amp;Main!N4&amp;""""&amp;IF(Sec!N4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N4&amp;"""}]}")&amp;" },")</f>
+      <c r="O5" s="2" t="str">
+        <f aca="false">IF(Main!N4="","",IF(Shift!N4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!N4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!N4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!N4&amp;""""&amp;IF(Sec!N4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N4&amp;"""}]}")&amp;" }"&amp;IF(Shift!N4="",","," },"))</f>
         <v>{ "label": "shift" },</v>
       </c>
-      <c r="P5" s="3" t="str">
-        <f aca="false">IF(Main!O4="","","{ ""label"": """&amp;Main!O4&amp;""""&amp;IF(Sec!O4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O4&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="Q5" s="3" t="str">
-        <f aca="false">IF(Main!P4="","","{ ""label"": """&amp;Main!P4&amp;""""&amp;IF(Sec!P4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P4&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="R5" s="3" t="str">
-        <f aca="false">IF(Main!Q4="","","{ ""label"": """&amp;Main!Q4&amp;""""&amp;IF(Sec!Q4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q4&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="S5" s="3" t="str">
-        <f aca="false">IF(Main!R4="","","{ ""label"": """&amp;Main!R4&amp;""""&amp;IF(Sec!R4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R4&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="T5" s="3" t="str">
-        <f aca="false">IF(Main!S4="","","{ ""label"": """&amp;Main!S4&amp;""""&amp;IF(Sec!S4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S4&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="U5" s="3" t="str">
-        <f aca="false">IF(Main!T4="","","{ ""label"": """&amp;Main!T4&amp;""""&amp;IF(Sec!T4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T4&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="V5" s="3" t="str">
-        <f aca="false">IF(Main!U4="","","{ ""label"": """&amp;Main!U4&amp;""""&amp;IF(Sec!U4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U4&amp;"""}]}")&amp;" },")</f>
+      <c r="P5" s="2" t="str">
+        <f aca="false">IF(Main!O4="","",IF(Shift!O4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!O4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!O4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!O4&amp;""""&amp;IF(Sec!O4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O4&amp;"""}]}")&amp;" }"&amp;IF(Shift!O4="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f aca="false">IF(Main!P4="","",IF(Shift!P4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!P4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!P4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!P4&amp;""""&amp;IF(Sec!P4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P4&amp;"""}]}")&amp;" }"&amp;IF(Shift!P4="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f aca="false">IF(Main!Q4="","",IF(Shift!Q4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!Q4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!Q4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!Q4&amp;""""&amp;IF(Sec!Q4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q4&amp;"""}]}")&amp;" }"&amp;IF(Shift!Q4="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f aca="false">IF(Main!R4="","",IF(Shift!R4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!R4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!R4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!R4&amp;""""&amp;IF(Sec!R4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R4&amp;"""}]}")&amp;" }"&amp;IF(Shift!R4="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f aca="false">IF(Main!S4="","",IF(Shift!S4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!S4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!S4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!S4&amp;""""&amp;IF(Sec!S4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S4&amp;"""}]}")&amp;" }"&amp;IF(Shift!S4="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="U5" s="2" t="str">
+        <f aca="false">IF(Main!T4="","",IF(Shift!T4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!T4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!T4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!T4&amp;""""&amp;IF(Sec!T4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T4&amp;"""}]}")&amp;" }"&amp;IF(Shift!T4="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="V5" s="2" t="str">
+        <f aca="false">IF(Main!U4="","",IF(Shift!U4="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!U4&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!U4&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!U4&amp;""""&amp;IF(Sec!U4="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U4&amp;"""}]}")&amp;" }"&amp;IF(Shift!U4="",","," },"))</f>
         <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="str">
-        <f aca="false">IF(Main!A5="","","{ ""label"": """&amp;Main!A5&amp;""""&amp;IF(Sec!A5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f aca="false">IF(Main!B5="","","{ ""label"": """&amp;Main!B5&amp;""""&amp;IF(Sec!B5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f aca="false">IF(Main!C5="","","{ ""label"": """&amp;Main!C5&amp;""""&amp;IF(Sec!C5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f aca="false">IF(Main!D5="","","{ ""label"": """&amp;Main!D5&amp;""""&amp;IF(Sec!D5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="F6" s="3" t="str">
-        <f aca="false">IF(Main!E5="","","{ ""label"": """&amp;Main!E5&amp;""""&amp;IF(Sec!E5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f aca="false">IF(Main!F5="","","{ ""label"": """&amp;Main!F5&amp;""""&amp;IF(Sec!F5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f aca="false">IF(Main!G5="","","{ ""label"": """&amp;Main!G5&amp;""""&amp;IF(Sec!G5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f aca="false">IF(Main!H5="","","{ ""label"": """&amp;Main!H5&amp;""""&amp;IF(Sec!H5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f aca="false">IF(Main!I5="","","{ ""label"": """&amp;Main!I5&amp;""""&amp;IF(Sec!I5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="K6" s="3" t="str">
-        <f aca="false">IF(Main!J5="","","{ ""label"": """&amp;Main!J5&amp;""""&amp;IF(Sec!J5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="L6" s="3" t="str">
-        <f aca="false">IF(Main!K5="","","{ ""label"": """&amp;Main!K5&amp;""""&amp;IF(Sec!K5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="M6" s="3" t="str">
-        <f aca="false">IF(Main!L5="","","{ ""label"": """&amp;Main!L5&amp;""""&amp;IF(Sec!L5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="N6" s="3" t="str">
-        <f aca="false">IF(Main!M5="","","{ ""label"": """&amp;Main!M5&amp;""""&amp;IF(Sec!M5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="O6" s="3" t="str">
-        <f aca="false">IF(Main!N5="","","{ ""label"": """&amp;Main!N5&amp;""""&amp;IF(Sec!N5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="P6" s="3" t="str">
-        <f aca="false">IF(Main!O5="","","{ ""label"": """&amp;Main!O5&amp;""""&amp;IF(Sec!O5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="Q6" s="3" t="str">
-        <f aca="false">IF(Main!P5="","","{ ""label"": """&amp;Main!P5&amp;""""&amp;IF(Sec!P5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="R6" s="3" t="str">
-        <f aca="false">IF(Main!Q5="","","{ ""label"": """&amp;Main!Q5&amp;""""&amp;IF(Sec!Q5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="S6" s="3" t="str">
-        <f aca="false">IF(Main!R5="","","{ ""label"": """&amp;Main!R5&amp;""""&amp;IF(Sec!R5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="T6" s="3" t="str">
-        <f aca="false">IF(Main!S5="","","{ ""label"": """&amp;Main!S5&amp;""""&amp;IF(Sec!S5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="U6" s="3" t="str">
-        <f aca="false">IF(Main!T5="","","{ ""label"": """&amp;Main!T5&amp;""""&amp;IF(Sec!T5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T5&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="V6" s="3" t="str">
-        <f aca="false">IF(Main!U5="","","{ ""label"": """&amp;Main!U5&amp;""""&amp;IF(Sec!U5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U5&amp;"""}]}")&amp;" },")</f>
+      <c r="B6" s="2" t="str">
+        <f aca="false">IF(Main!A5="","",IF(Shift!A5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!A5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!A5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!A5&amp;""""&amp;IF(Sec!A5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A5&amp;"""}]}")&amp;" }"&amp;IF(Shift!A5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f aca="false">IF(Main!B5="","",IF(Shift!B5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!B5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!B5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!B5&amp;""""&amp;IF(Sec!B5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B5&amp;"""}]}")&amp;" }"&amp;IF(Shift!B5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f aca="false">IF(Main!C5="","",IF(Shift!C5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!C5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!C5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!C5&amp;""""&amp;IF(Sec!C5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C5&amp;"""}]}")&amp;" }"&amp;IF(Shift!C5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f aca="false">IF(Main!D5="","",IF(Shift!D5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!D5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!D5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!D5&amp;""""&amp;IF(Sec!D5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D5&amp;"""}]}")&amp;" }"&amp;IF(Shift!D5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f aca="false">IF(Main!E5="","",IF(Shift!E5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!E5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!E5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!E5&amp;""""&amp;IF(Sec!E5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E5&amp;"""}]}")&amp;" }"&amp;IF(Shift!E5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f aca="false">IF(Main!F5="","",IF(Shift!F5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!F5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!F5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!F5&amp;""""&amp;IF(Sec!F5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F5&amp;"""}]}")&amp;" }"&amp;IF(Shift!F5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f aca="false">IF(Main!G5="","",IF(Shift!G5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!G5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!G5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!G5&amp;""""&amp;IF(Sec!G5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G5&amp;"""}]}")&amp;" }"&amp;IF(Shift!G5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f aca="false">IF(Main!H5="","",IF(Shift!H5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!H5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!H5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!H5&amp;""""&amp;IF(Sec!H5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H5&amp;"""}]}")&amp;" }"&amp;IF(Shift!H5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f aca="false">IF(Main!I5="","",IF(Shift!I5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!I5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!I5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!I5&amp;""""&amp;IF(Sec!I5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I5&amp;"""}]}")&amp;" }"&amp;IF(Shift!I5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f aca="false">IF(Main!J5="","",IF(Shift!J5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!J5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!J5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!J5&amp;""""&amp;IF(Sec!J5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J5&amp;"""}]}")&amp;" }"&amp;IF(Shift!J5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f aca="false">IF(Main!K5="","",IF(Shift!K5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!K5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!K5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!K5&amp;""""&amp;IF(Sec!K5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K5&amp;"""}]}")&amp;" }"&amp;IF(Shift!K5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f aca="false">IF(Main!L5="","",IF(Shift!L5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!L5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!L5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!L5&amp;""""&amp;IF(Sec!L5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L5&amp;"""}]}")&amp;" }"&amp;IF(Shift!L5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f aca="false">IF(Main!M5="","",IF(Shift!M5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!M5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!M5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!M5&amp;""""&amp;IF(Sec!M5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M5&amp;"""}]}")&amp;" }"&amp;IF(Shift!M5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f aca="false">IF(Main!N5="","",IF(Shift!N5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!N5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!N5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!N5&amp;""""&amp;IF(Sec!N5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N5&amp;"""}]}")&amp;" }"&amp;IF(Shift!N5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f aca="false">IF(Main!O5="","",IF(Shift!O5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!O5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!O5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!O5&amp;""""&amp;IF(Sec!O5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O5&amp;"""}]}")&amp;" }"&amp;IF(Shift!O5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f aca="false">IF(Main!P5="","",IF(Shift!P5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!P5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!P5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!P5&amp;""""&amp;IF(Sec!P5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P5&amp;"""}]}")&amp;" }"&amp;IF(Shift!P5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f aca="false">IF(Main!Q5="","",IF(Shift!Q5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!Q5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!Q5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!Q5&amp;""""&amp;IF(Sec!Q5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q5&amp;"""}]}")&amp;" }"&amp;IF(Shift!Q5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="S6" s="2" t="str">
+        <f aca="false">IF(Main!R5="","",IF(Shift!R5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!R5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!R5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!R5&amp;""""&amp;IF(Sec!R5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R5&amp;"""}]}")&amp;" }"&amp;IF(Shift!R5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f aca="false">IF(Main!S5="","",IF(Shift!S5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!S5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!S5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!S5&amp;""""&amp;IF(Sec!S5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S5&amp;"""}]}")&amp;" }"&amp;IF(Shift!S5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="U6" s="2" t="str">
+        <f aca="false">IF(Main!T5="","",IF(Shift!T5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!T5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!T5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!T5&amp;""""&amp;IF(Sec!T5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T5&amp;"""}]}")&amp;" }"&amp;IF(Shift!T5="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="V6" s="2" t="str">
+        <f aca="false">IF(Main!U5="","",IF(Shift!U5="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!U5&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!U5&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!U5&amp;""""&amp;IF(Sec!U5="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U5&amp;"""}]}")&amp;" }"&amp;IF(Shift!U5="",","," },"))</f>
         <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="str">
-        <f aca="false">IF(Main!A6="","","{ ""label"": """&amp;Main!A6&amp;""""&amp;IF(Sec!A6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f aca="false">IF(Main!B6="","","{ ""label"": """&amp;Main!B6&amp;""""&amp;IF(Sec!B6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f aca="false">IF(Main!C6="","","{ ""label"": """&amp;Main!C6&amp;""""&amp;IF(Sec!C6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f aca="false">IF(Main!D6="","","{ ""label"": """&amp;Main!D6&amp;""""&amp;IF(Sec!D6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="F7" s="3" t="str">
-        <f aca="false">IF(Main!E6="","","{ ""label"": """&amp;Main!E6&amp;""""&amp;IF(Sec!E6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f aca="false">IF(Main!F6="","","{ ""label"": """&amp;Main!F6&amp;""""&amp;IF(Sec!F6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f aca="false">IF(Main!G6="","","{ ""label"": """&amp;Main!G6&amp;""""&amp;IF(Sec!G6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f aca="false">IF(Main!H6="","","{ ""label"": """&amp;Main!H6&amp;""""&amp;IF(Sec!H6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f aca="false">IF(Main!I6="","","{ ""label"": """&amp;Main!I6&amp;""""&amp;IF(Sec!I6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="K7" s="3" t="str">
-        <f aca="false">IF(Main!J6="","","{ ""label"": """&amp;Main!J6&amp;""""&amp;IF(Sec!J6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="L7" s="3" t="str">
-        <f aca="false">IF(Main!K6="","","{ ""label"": """&amp;Main!K6&amp;""""&amp;IF(Sec!K6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="M7" s="3" t="str">
-        <f aca="false">IF(Main!L6="","","{ ""label"": """&amp;Main!L6&amp;""""&amp;IF(Sec!L6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="N7" s="3" t="str">
-        <f aca="false">IF(Main!M6="","","{ ""label"": """&amp;Main!M6&amp;""""&amp;IF(Sec!M6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="O7" s="3" t="str">
-        <f aca="false">IF(Main!N6="","","{ ""label"": """&amp;Main!N6&amp;""""&amp;IF(Sec!N6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="P7" s="3" t="str">
-        <f aca="false">IF(Main!O6="","","{ ""label"": """&amp;Main!O6&amp;""""&amp;IF(Sec!O6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="3" t="str">
-        <f aca="false">IF(Main!P6="","","{ ""label"": """&amp;Main!P6&amp;""""&amp;IF(Sec!P6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="R7" s="3" t="str">
-        <f aca="false">IF(Main!Q6="","","{ ""label"": """&amp;Main!Q6&amp;""""&amp;IF(Sec!Q6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="S7" s="3" t="str">
-        <f aca="false">IF(Main!R6="","","{ ""label"": """&amp;Main!R6&amp;""""&amp;IF(Sec!R6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="T7" s="3" t="str">
-        <f aca="false">IF(Main!S6="","","{ ""label"": """&amp;Main!S6&amp;""""&amp;IF(Sec!S6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="U7" s="3" t="str">
-        <f aca="false">IF(Main!T6="","","{ ""label"": """&amp;Main!T6&amp;""""&amp;IF(Sec!T6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T6&amp;"""}]}")&amp;" },")</f>
-        <v/>
-      </c>
-      <c r="V7" s="3" t="str">
-        <f aca="false">IF(Main!U6="","","{ ""label"": """&amp;Main!U6&amp;""""&amp;IF(Sec!U6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U6&amp;"""}]}")&amp;" },")</f>
+      <c r="B7" s="2" t="str">
+        <f aca="false">IF(Main!A6="","",IF(Shift!A6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!A6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!A6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!A6&amp;""""&amp;IF(Sec!A6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!A6&amp;"""}]}")&amp;" }"&amp;IF(Shift!A6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f aca="false">IF(Main!B6="","",IF(Shift!B6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!B6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!B6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!B6&amp;""""&amp;IF(Sec!B6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!B6&amp;"""}]}")&amp;" }"&amp;IF(Shift!B6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f aca="false">IF(Main!C6="","",IF(Shift!C6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!C6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!C6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!C6&amp;""""&amp;IF(Sec!C6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!C6&amp;"""}]}")&amp;" }"&amp;IF(Shift!C6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f aca="false">IF(Main!D6="","",IF(Shift!D6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!D6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!D6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!D6&amp;""""&amp;IF(Sec!D6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!D6&amp;"""}]}")&amp;" }"&amp;IF(Shift!D6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f aca="false">IF(Main!E6="","",IF(Shift!E6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!E6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!E6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!E6&amp;""""&amp;IF(Sec!E6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!E6&amp;"""}]}")&amp;" }"&amp;IF(Shift!E6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f aca="false">IF(Main!F6="","",IF(Shift!F6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!F6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!F6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!F6&amp;""""&amp;IF(Sec!F6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!F6&amp;"""}]}")&amp;" }"&amp;IF(Shift!F6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f aca="false">IF(Main!G6="","",IF(Shift!G6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!G6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!G6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!G6&amp;""""&amp;IF(Sec!G6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!G6&amp;"""}]}")&amp;" }"&amp;IF(Shift!G6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f aca="false">IF(Main!H6="","",IF(Shift!H6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!H6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!H6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!H6&amp;""""&amp;IF(Sec!H6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!H6&amp;"""}]}")&amp;" }"&amp;IF(Shift!H6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f aca="false">IF(Main!I6="","",IF(Shift!I6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!I6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!I6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!I6&amp;""""&amp;IF(Sec!I6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!I6&amp;"""}]}")&amp;" }"&amp;IF(Shift!I6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f aca="false">IF(Main!J6="","",IF(Shift!J6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!J6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!J6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!J6&amp;""""&amp;IF(Sec!J6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!J6&amp;"""}]}")&amp;" }"&amp;IF(Shift!J6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f aca="false">IF(Main!K6="","",IF(Shift!K6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!K6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!K6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!K6&amp;""""&amp;IF(Sec!K6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!K6&amp;"""}]}")&amp;" }"&amp;IF(Shift!K6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f aca="false">IF(Main!L6="","",IF(Shift!L6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!L6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!L6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!L6&amp;""""&amp;IF(Sec!L6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!L6&amp;"""}]}")&amp;" }"&amp;IF(Shift!L6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f aca="false">IF(Main!M6="","",IF(Shift!M6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!M6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!M6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!M6&amp;""""&amp;IF(Sec!M6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!M6&amp;"""}]}")&amp;" }"&amp;IF(Shift!M6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f aca="false">IF(Main!N6="","",IF(Shift!N6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!N6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!N6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!N6&amp;""""&amp;IF(Sec!N6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!N6&amp;"""}]}")&amp;" }"&amp;IF(Shift!N6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f aca="false">IF(Main!O6="","",IF(Shift!O6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!O6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!O6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!O6&amp;""""&amp;IF(Sec!O6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!O6&amp;"""}]}")&amp;" }"&amp;IF(Shift!O6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f aca="false">IF(Main!P6="","",IF(Shift!P6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!P6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!P6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!P6&amp;""""&amp;IF(Sec!P6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!P6&amp;"""}]}")&amp;" }"&amp;IF(Shift!P6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f aca="false">IF(Main!Q6="","",IF(Shift!Q6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!Q6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!Q6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!Q6&amp;""""&amp;IF(Sec!Q6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!Q6&amp;"""}]}")&amp;" }"&amp;IF(Shift!Q6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f aca="false">IF(Main!R6="","",IF(Shift!R6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!R6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!R6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!R6&amp;""""&amp;IF(Sec!R6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!R6&amp;"""}]}")&amp;" }"&amp;IF(Shift!R6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f aca="false">IF(Main!S6="","",IF(Shift!S6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!S6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!S6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!S6&amp;""""&amp;IF(Sec!S6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!S6&amp;"""}]}")&amp;" }"&amp;IF(Shift!S6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="U7" s="2" t="str">
+        <f aca="false">IF(Main!T6="","",IF(Shift!T6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!T6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!T6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!T6&amp;""""&amp;IF(Sec!T6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!T6&amp;"""}]}")&amp;" }"&amp;IF(Shift!T6="",","," },"))</f>
+        <v/>
+      </c>
+      <c r="V7" s="2" t="str">
+        <f aca="false">IF(Main!U6="","",IF(Shift!U6="","","{ ""$"": ""shift_state_selector"", ""shiftedManual"": {""label"": """&amp;Shift!U6&amp;"""}, ""capsLock"": {""label"": """&amp;ShiftL!U6&amp;"""}, ""default"": ")&amp;"{ ""label"": """&amp;Main!U6&amp;""""&amp;IF(Sec!U6="","",", ""popup"": {""relevant"": [{""label"":"""&amp;Sec!U6&amp;"""}]}")&amp;" }"&amp;IF(Shift!U6="",","," },"))</f>
         <v/>
       </c>
     </row>
@@ -1413,312 +2035,312 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="str">
+      <c r="A10" s="2" t="str">
         <f aca="false">IF(B2="","",CHAR(13)&amp;"[")</f>
         <v> [</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="2" t="str">
         <f aca="false">A10&amp;IF(B2="","",CHAR(13)&amp;B2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} },</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="2" t="str">
         <f aca="false">B10&amp;IF(C2="","",CHAR(13)&amp;C2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="2" t="str">
         <f aca="false">C10&amp;IF(D2="","",CHAR(13)&amp;D2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },</v>
-      </c>
-      <c r="E10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },</v>
+      </c>
+      <c r="E10" s="2" t="str">
         <f aca="false">D10&amp;IF(E2="","",CHAR(13)&amp;E2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },</v>
-      </c>
-      <c r="F10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },</v>
+      </c>
+      <c r="F10" s="2" t="str">
         <f aca="false">E10&amp;IF(F2="","",CHAR(13)&amp;F2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },</v>
-      </c>
-      <c r="G10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },</v>
+      </c>
+      <c r="G10" s="2" t="str">
         <f aca="false">F10&amp;IF(G2="","",CHAR(13)&amp;G2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },</v>
-      </c>
-      <c r="H10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },</v>
+      </c>
+      <c r="H10" s="2" t="str">
         <f aca="false">G10&amp;IF(H2="","",CHAR(13)&amp;H2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },</v>
-      </c>
-      <c r="I10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },</v>
+      </c>
+      <c r="I10" s="2" t="str">
         <f aca="false">H10&amp;IF(I2="","",CHAR(13)&amp;I2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },</v>
-      </c>
-      <c r="J10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },</v>
+      </c>
+      <c r="J10" s="2" t="str">
         <f aca="false">I10&amp;IF(J2="","",CHAR(13)&amp;J2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },</v>
-      </c>
-      <c r="K10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },</v>
+      </c>
+      <c r="K10" s="2" t="str">
         <f aca="false">J10&amp;IF(K2="","",CHAR(13)&amp;K2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },</v>
-      </c>
-      <c r="L10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },</v>
+      </c>
+      <c r="L10" s="2" t="str">
         <f aca="false">K10&amp;IF(L2="","",CHAR(13)&amp;L2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },</v>
-      </c>
-      <c r="M10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },</v>
+      </c>
+      <c r="M10" s="2" t="str">
         <f aca="false">L10&amp;IF(M2="","",CHAR(13)&amp;M2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },</v>
-      </c>
-      <c r="N10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },</v>
+      </c>
+      <c r="N10" s="2" t="str">
         <f aca="false">M10&amp;IF(N2="","",CHAR(13)&amp;N2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },</v>
-      </c>
-      <c r="O10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },</v>
+      </c>
+      <c r="O10" s="2" t="str">
         <f aca="false">N10&amp;IF(O2="","",CHAR(13)&amp;O2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },</v>
-      </c>
-      <c r="P10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },</v>
+      </c>
+      <c r="P10" s="2" t="str">
         <f aca="false">O10&amp;IF(P2="","",CHAR(13)&amp;P2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },-{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },</v>
-      </c>
-      <c r="Q10" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } },</v>
+      </c>
+      <c r="Q10" s="2" t="str">
         <f aca="false">P10&amp;IF(Q2="","",CHAR(13)&amp;Q2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },-{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } }, { "label": "select_word" },</v>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="2" t="str">
         <f aca="false">Q10&amp;IF(R2="","",CHAR(13)&amp;R2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },-{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } }, { "label": "select_word" }, { "label": "delete" },</v>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="2" t="str">
         <f aca="false">R10&amp;IF(S2="","",CHAR(13)&amp;S2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },-{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } }, { "label": "select_word" }, { "label": "delete" },</v>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="2" t="str">
         <f aca="false">S10&amp;IF(T2="","",CHAR(13)&amp;T2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },-{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } }, { "label": "select_word" }, { "label": "delete" },</v>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="2" t="str">
         <f aca="false">T10&amp;IF(U2="","",CHAR(13)&amp;U2)</f>
         <v> [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },-{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } }, { "label": "select_word" }, { "label": "delete" },</v>
       </c>
@@ -1728,44 +2350,44 @@
 [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },-{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } }, { "label": "select_word" }, { "label": "delete" } ],</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="2" t="str">
         <f aca="false">IF(B3="","",CHAR(13)&amp;"[")</f>
         <v> [</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="2" t="str">
         <f aca="false">A11&amp;IF(B3="","",CHAR(13)&amp;B3)</f>
         <v> [ { "label": "copy", "popup": {"relevant": [{"label":"select_all"}]} },</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <f aca="false">B11&amp;IF(C3="","",CHAR(13)&amp;C3)</f>
         <v> [ { "label": "copy", "popup": {"relevant": [{"label":"select_all"}]} }, { "label": "paste", "popup": {"relevant": [{"label":"clipboard"}]} },</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="2" t="str">
         <f aca="false">C11&amp;IF(D3="","",CHAR(13)&amp;D3)</f>
         <v> [@@ -1773,7 +2395,7 @@
 { "label": "paste", "popup": {"relevant": [{"label":"clipboard"}]} }, { "label": "q", "popup": {"relevant": [{"label":"~"}]} },</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="2" t="str">
         <f aca="false">D11&amp;IF(E3="","",CHAR(13)&amp;E3)</f>
         <v> [@@ -1782,7 +2404,7 @@
 { "label": "q", "popup": {"relevant": [{"label":"~"}]} }, { "label": "w", "popup": {"relevant": [{"label":"`"}]} },</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="2" t="str">
         <f aca="false">E11&amp;IF(F3="","",CHAR(13)&amp;F3)</f>
         <v> [@@ -1792,7 +2414,7 @@
 { "label": "w", "popup": {"relevant": [{"label":"`"}]} }, { "label": "e", "popup": {"relevant": [{"label":"{"}]} },</v>
       </c>
-      <c r="G11" s="3" t="str">
+      <c r="G11" s="2" t="str">
         <f aca="false">F11&amp;IF(G3="","",CHAR(13)&amp;G3)</f>
         <v> [@@ -1803,7 +2425,7 @@
 { "label": "e", "popup": {"relevant": [{"label":"{"}]} }, { "label": "r", "popup": {"relevant": [{"label":"}"}]} },</v>
       </c>
-      <c r="H11" s="3" t="str">
+      <c r="H11" s="2" t="str">
         <f aca="false">G11&amp;IF(H3="","",CHAR(13)&amp;H3)</f>
         <v> [@@ -1815,7 +2437,7 @@
 { "label": "r", "popup": {"relevant": [{"label":"}"}]} }, { "label": "t" },</v>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" s="2" t="str">
         <f aca="false">H11&amp;IF(I3="","",CHAR(13)&amp;I3)</f>
         <v> [@@ -1828,7 +2450,7 @@
 { "label": "t" }, { "label": "y" },</v>
       </c>
-      <c r="J11" s="3" t="str">
+      <c r="J11" s="2" t="str">
         <f aca="false">I11&amp;IF(J3="","",CHAR(13)&amp;J3)</f>
         <v> [@@ -1842,7 +2464,7 @@
 { "label": "y" }, { "label": "u" },</v>
       </c>
-      <c r="K11" s="3" t="str">
+      <c r="K11" s="2" t="str">
         <f aca="false">J11&amp;IF(K3="","",CHAR(13)&amp;K3)</f>
         <v> [@@ -1857,7 +2479,7 @@
 { "label": "u" }, { "label": "i" },</v>
       </c>
-      <c r="L11" s="3" t="str">
+      <c r="L11" s="2" t="str">
         <f aca="false">K11&amp;IF(L3="","",CHAR(13)&amp;L3)</f>
         <v> [@@ -1873,7 +2495,7 @@
 { "label": "i" }, { "label": "o" },</v>
       </c>
-      <c r="M11" s="3" t="str">
+      <c r="M11" s="2" t="str">
         <f aca="false">L11&amp;IF(M3="","",CHAR(13)&amp;M3)</f>
         <v> [@@ -1890,7 +2512,7 @@
 { "label": "o" }, { "label": "p" },</v>
       </c>
-      <c r="N11" s="3" t="str">
+      <c r="N11" s="2" t="str">
         <f aca="false">M11&amp;IF(N3="","",CHAR(13)&amp;N3)</f>
         <v> [@@ -1908,7 +2530,7 @@
 { "label": "p" }, { "label": "up" },</v>
       </c>
-      <c r="O11" s="3" t="str">
+      <c r="O11" s="2" t="str">
         <f aca="false">N11&amp;IF(O3="","",CHAR(13)&amp;O3)</f>
         <v> [@@ -1927,7 +2549,7 @@
 { "label": "up" }, { "label": "action" },</v>
       </c>
-      <c r="P11" s="3" t="str">
+      <c r="P11" s="2" t="str">
         <f aca="false">O11&amp;IF(P3="","",CHAR(13)&amp;P3)</f>
         <v> [@@ -1946,7 +2568,7 @@
 { "label": "up" }, { "label": "action" },</v>
       </c>
-      <c r="Q11" s="3" t="str">
+      <c r="Q11" s="2" t="str">
         <f aca="false">P11&amp;IF(Q3="","",CHAR(13)&amp;Q3)</f>
         <v> [@@ -1965,7 +2587,7 @@
 { "label": "up" }, { "label": "action" },</v>
       </c>
-      <c r="R11" s="3" t="str">
+      <c r="R11" s="2" t="str">
         <f aca="false">Q11&amp;IF(R3="","",CHAR(13)&amp;R3)</f>
         <v> [@@ -1984,7 +2606,7 @@
 { "label": "up" }, { "label": "action" },</v>
       </c>
-      <c r="S11" s="3" t="str">
+      <c r="S11" s="2" t="str">
         <f aca="false">R11&amp;IF(S3="","",CHAR(13)&amp;S3)</f>
         <v> [@@ -2003,7 +2625,7 @@
 { "label": "up" }, { "label": "action" },</v>
       </c>
-      <c r="T11" s="3" t="str">
+      <c r="T11" s="2" t="str">
         <f aca="false">S11&amp;IF(T3="","",CHAR(13)&amp;T3)</f>
         <v> [@@ -2022,7 +2644,7 @@
 { "label": "up" }, { "label": "action" },</v>
       </c>
-      <c r="U11" s="3" t="str">
+      <c r="U11" s="2" t="str">
         <f aca="false">T11&amp;IF(U3="","",CHAR(13)&amp;U3)</f>
         <v> [@@ -2063,25 +2685,25 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="2" t="str">
         <f aca="false">IF(B4="","",CHAR(13)&amp;"[")</f>
         <v> [</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="2" t="str">
         <f aca="false">A12&amp;IF(B4="","",CHAR(13)&amp;B4)</f>
         <v> [ { "label": "'", "popup": {"relevant": [{"label":"\""}]} },</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="2" t="str">
         <f aca="false">B12&amp;IF(C4="","",CHAR(13)&amp;C4)</f>
         <v> [ { "label": "'", "popup": {"relevant": [{"label":"\""}]} }, { "label": "\\", "popup": {"relevant": [{"label":"|"}]} },</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="2" t="str">
         <f aca="false">C12&amp;IF(D4="","",CHAR(13)&amp;D4)</f>
         <v> [@@ -2089,7 +2711,7 @@
 { "label": "\\", "popup": {"relevant": [{"label":"|"}]} }, { "label": "a", "popup": {"relevant": [{"label":"•"}]} },</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E12" s="2" t="str">
         <f aca="false">D12&amp;IF(E4="","",CHAR(13)&amp;E4)</f>
         <v> [@@ -2098,7 +2720,7 @@
 { "label": "a", "popup": {"relevant": [{"label":"•"}]} }, { "label": "s", "popup": {"relevant": [{"label":"["}]} },</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="2" t="str">
         <f aca="false">E12&amp;IF(F4="","",CHAR(13)&amp;F4)</f>
         <v> [@@ -2108,7 +2730,7 @@
 { "label": "s", "popup": {"relevant": [{"label":"["}]} }, { "label": "d", "popup": {"relevant": [{"label":"]"}]} },</v>
       </c>
-      <c r="G12" s="3" t="str">
+      <c r="G12" s="2" t="str">
         <f aca="false">F12&amp;IF(G4="","",CHAR(13)&amp;G4)</f>
         <v> [@@ -2119,7 +2741,7 @@
 { "label": "d", "popup": {"relevant": [{"label":"]"}]} }, { "label": "f" },</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="2" t="str">
         <f aca="false">G12&amp;IF(H4="","",CHAR(13)&amp;H4)</f>
         <v> [@@ -2131,7 +2753,7 @@
 { "label": "f" }, { "label": "g" },</v>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="I12" s="2" t="str">
         <f aca="false">H12&amp;IF(I4="","",CHAR(13)&amp;I4)</f>
         <v> [@@ -2144,7 +2766,7 @@
 { "label": "g" }, { "label": "h" },</v>
       </c>
-      <c r="J12" s="3" t="str">
+      <c r="J12" s="2" t="str">
         <f aca="false">I12&amp;IF(J4="","",CHAR(13)&amp;J4)</f>
         <v> [@@ -2158,7 +2780,7 @@
 { "label": "h" }, { "label": "j" },</v>
       </c>
-      <c r="K12" s="3" t="str">
+      <c r="K12" s="2" t="str">
         <f aca="false">J12&amp;IF(K4="","",CHAR(13)&amp;K4)</f>
         <v> [@@ -2173,7 +2795,7 @@
 { "label": "j" }, { "label": "k" },</v>
       </c>
-      <c r="L12" s="3" t="str">
+      <c r="L12" s="2" t="str">
         <f aca="false">K12&amp;IF(L4="","",CHAR(13)&amp;L4)</f>
         <v> [@@ -2189,7 +2811,7 @@
 { "label": "k" }, { "label": "l" },</v>
       </c>
-      <c r="M12" s="3" t="str">
+      <c r="M12" s="2" t="str">
         <f aca="false">L12&amp;IF(M4="","",CHAR(13)&amp;M4)</f>
         <v> [@@ -2206,7 +2828,7 @@
 { "label": "l" }, { "label": "left" },</v>
       </c>
-      <c r="N12" s="3" t="str">
+      <c r="N12" s="2" t="str">
         <f aca="false">M12&amp;IF(N4="","",CHAR(13)&amp;N4)</f>
         <v> [@@ -2224,7 +2846,7 @@
 { "label": "left" }, { "label": "right" },</v>
       </c>
-      <c r="O12" s="3" t="str">
+      <c r="O12" s="2" t="str">
         <f aca="false">N12&amp;IF(O4="","",CHAR(13)&amp;O4)</f>
         <v> [@@ -2243,7 +2865,7 @@
 { "label": "right" }, { "label": "action" },</v>
       </c>
-      <c r="P12" s="3" t="str">
+      <c r="P12" s="2" t="str">
         <f aca="false">O12&amp;IF(P4="","",CHAR(13)&amp;P4)</f>
         <v> [@@ -2262,7 +2884,7 @@
 { "label": "right" }, { "label": "action" },</v>
       </c>
-      <c r="Q12" s="3" t="str">
+      <c r="Q12" s="2" t="str">
         <f aca="false">P12&amp;IF(Q4="","",CHAR(13)&amp;Q4)</f>
         <v> [@@ -2281,7 +2903,7 @@
 { "label": "right" }, { "label": "action" },</v>
       </c>
-      <c r="R12" s="3" t="str">
+      <c r="R12" s="2" t="str">
         <f aca="false">Q12&amp;IF(R4="","",CHAR(13)&amp;R4)</f>
         <v> [@@ -2300,7 +2922,7 @@
 { "label": "right" }, { "label": "action" },</v>
       </c>
-      <c r="S12" s="3" t="str">
+      <c r="S12" s="2" t="str">
         <f aca="false">R12&amp;IF(S4="","",CHAR(13)&amp;S4)</f>
         <v> [@@ -2319,7 +2941,7 @@
 { "label": "right" }, { "label": "action" },</v>
       </c>
-      <c r="T12" s="3" t="str">
+      <c r="T12" s="2" t="str">
         <f aca="false">S12&amp;IF(T4="","",CHAR(13)&amp;T4)</f>
         <v> [@@ -2338,7 +2960,7 @@
 { "label": "right" }, { "label": "action" },</v>
       </c>
-      <c r="U12" s="3" t="str">
+      <c r="U12" s="2" t="str">
         <f aca="false">T12&amp;IF(U4="","",CHAR(13)&amp;U4)</f>
         <v> [@@ -2379,25 +3001,25 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="2" t="str">
         <f aca="false">IF(B5="","",CHAR(13)&amp;"[")</f>
         <v> [</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="2" t="str">
         <f aca="false">A13&amp;IF(B5="","",CHAR(13)&amp;B5)</f>
         <v> [ { "label": "shift" },</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f aca="false">B13&amp;IF(C5="","",CHAR(13)&amp;C5)</f>
         <v> [ { "label": "shift" }, { "label": "tab" },</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="2" t="str">
         <f aca="false">C13&amp;IF(D5="","",CHAR(13)&amp;D5)</f>
         <v> [@@ -2405,7 +3027,7 @@
 { "label": "tab" }, { "label": "\/", "popup": {"relevant": [{"label":"&lt;"}]} },</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="2" t="str">
         <f aca="false">D13&amp;IF(E5="","",CHAR(13)&amp;E5)</f>
         <v> [@@ -2414,7 +3036,7 @@
 { "label": "\/", "popup": {"relevant": [{"label":"&lt;"}]} }, { "label": "z", "popup": {"relevant": [{"label":"&gt;"}]} },</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="2" t="str">
         <f aca="false">E13&amp;IF(F5="","",CHAR(13)&amp;F5)</f>
         <v> [@@ -2424,7 +3046,7 @@
 { "label": "z", "popup": {"relevant": [{"label":"&gt;"}]} }, { "label": "x", "popup": {"relevant": [{"label":"≥"}]} },</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="2" t="str">
         <f aca="false">F13&amp;IF(G5="","",CHAR(13)&amp;G5)</f>
         <v> [@@ -2435,7 +3057,7 @@
 { "label": "x", "popup": {"relevant": [{"label":"≥"}]} }, { "label": "c", "popup": {"relevant": [{"label":"≤"}]} },</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="2" t="str">
         <f aca="false">G13&amp;IF(H5="","",CHAR(13)&amp;H5)</f>
         <v> [@@ -2447,7 +3069,7 @@
 { "label": "c", "popup": {"relevant": [{"label":"≤"}]} }, { "label": "v", "popup": {"relevant": [{"label":"≠"}]} },</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="2" t="str">
         <f aca="false">H13&amp;IF(I5="","",CHAR(13)&amp;I5)</f>
         <v> [@@ -2460,7 +3082,7 @@
 { "label": "v", "popup": {"relevant": [{"label":"≠"}]} }, { "label": "b", "popup": {"relevant": [{"label":"⋅"}]} },</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="2" t="str">
         <f aca="false">I13&amp;IF(J5="","",CHAR(13)&amp;J5)</f>
         <v> [@@ -2474,7 +3096,7 @@
 { "label": "b", "popup": {"relevant": [{"label":"⋅"}]} }, { "label": "n", "popup": {"relevant": [{"label":"±"}]} },</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="2" t="str">
         <f aca="false">J13&amp;IF(K5="","",CHAR(13)&amp;K5)</f>
         <v> [@@ -2489,7 +3111,7 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} },</v>
       </c>
-      <c r="L13" s="3" t="str">
+      <c r="L13" s="2" t="str">
         <f aca="false">K13&amp;IF(L5="","",CHAR(13)&amp;L5)</f>
         <v> [@@ -2505,7 +3127,7 @@
 { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },</v>
       </c>
-      <c r="M13" s="3" t="str">
+      <c r="M13" s="2" t="str">
         <f aca="false">L13&amp;IF(M5="","",CHAR(13)&amp;M5)</f>
         <v> [@@ -2520,9 +3142,9 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },</v>
-      </c>
-      <c r="N13" s="3" t="str">
+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } },</v>
+      </c>
+      <c r="N13" s="2" t="str">
         <f aca="false">M13&amp;IF(N5="","",CHAR(13)&amp;N5)</f>
         <v> [@@ -2537,10 +3159,10 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" },</v>
       </c>
-      <c r="O13" s="3" t="str">
+      <c r="O13" s="2" t="str">
         <f aca="false">N13&amp;IF(O5="","",CHAR(13)&amp;O5)</f>
         <v> [@@ -2555,11 +3177,11 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" },</v>
       </c>
-      <c r="P13" s="3" t="str">
+      <c r="P13" s="2" t="str">
         <f aca="false">O13&amp;IF(P5="","",CHAR(13)&amp;P5)</f>
         <v> [@@ -2574,11 +3196,11 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" },</v>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="Q13" s="2" t="str">
         <f aca="false">P13&amp;IF(Q5="","",CHAR(13)&amp;Q5)</f>
         <v> [@@ -2593,11 +3215,11 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" },</v>
       </c>
-      <c r="R13" s="3" t="str">
+      <c r="R13" s="2" t="str">
         <f aca="false">Q13&amp;IF(R5="","",CHAR(13)&amp;R5)</f>
         <v> [@@ -2612,11 +3234,11 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" },</v>
       </c>
-      <c r="S13" s="3" t="str">
+      <c r="S13" s="2" t="str">
         <f aca="false">R13&amp;IF(S5="","",CHAR(13)&amp;S5)</f>
         <v> [@@ -2631,11 +3253,11 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" },</v>
       </c>
-      <c r="T13" s="3" t="str">
+      <c r="T13" s="2" t="str">
         <f aca="false">S13&amp;IF(T5="","",CHAR(13)&amp;T5)</f>
         <v> [@@ -2650,11 +3272,11 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" },</v>
       </c>
-      <c r="U13" s="3" t="str">
+      <c r="U13" s="2" t="str">
         <f aca="false">T13&amp;IF(U5="","",CHAR(13)&amp;U5)</f>
         <v> [@@ -2669,7 +3291,7 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" },</v>
       </c>
@@ -2688,94 +3310,94 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" } ],</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="2" t="str">
         <f aca="false">IF(B6="","",CHAR(13)&amp;"[")</f>
         <v/>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="2" t="str">
         <f aca="false">A14&amp;IF(B6="","",CHAR(13)&amp;B6)</f>
         <v/>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="2" t="str">
         <f aca="false">B14&amp;IF(C6="","",CHAR(13)&amp;C6)</f>
         <v/>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="2" t="str">
         <f aca="false">C14&amp;IF(D6="","",CHAR(13)&amp;D6)</f>
         <v/>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="2" t="str">
         <f aca="false">D14&amp;IF(E6="","",CHAR(13)&amp;E6)</f>
         <v/>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="2" t="str">
         <f aca="false">E14&amp;IF(F6="","",CHAR(13)&amp;F6)</f>
         <v/>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="2" t="str">
         <f aca="false">F14&amp;IF(G6="","",CHAR(13)&amp;G6)</f>
         <v/>
       </c>
-      <c r="H14" s="3" t="str">
+      <c r="H14" s="2" t="str">
         <f aca="false">G14&amp;IF(H6="","",CHAR(13)&amp;H6)</f>
         <v/>
       </c>
-      <c r="I14" s="3" t="str">
+      <c r="I14" s="2" t="str">
         <f aca="false">H14&amp;IF(I6="","",CHAR(13)&amp;I6)</f>
         <v/>
       </c>
-      <c r="J14" s="3" t="str">
+      <c r="J14" s="2" t="str">
         <f aca="false">I14&amp;IF(J6="","",CHAR(13)&amp;J6)</f>
         <v/>
       </c>
-      <c r="K14" s="3" t="str">
+      <c r="K14" s="2" t="str">
         <f aca="false">J14&amp;IF(K6="","",CHAR(13)&amp;K6)</f>
         <v/>
       </c>
-      <c r="L14" s="3" t="str">
+      <c r="L14" s="2" t="str">
         <f aca="false">K14&amp;IF(L6="","",CHAR(13)&amp;L6)</f>
         <v/>
       </c>
-      <c r="M14" s="3" t="str">
+      <c r="M14" s="2" t="str">
         <f aca="false">L14&amp;IF(M6="","",CHAR(13)&amp;M6)</f>
         <v/>
       </c>
-      <c r="N14" s="3" t="str">
+      <c r="N14" s="2" t="str">
         <f aca="false">M14&amp;IF(N6="","",CHAR(13)&amp;N6)</f>
         <v/>
       </c>
-      <c r="O14" s="3" t="str">
+      <c r="O14" s="2" t="str">
         <f aca="false">N14&amp;IF(O6="","",CHAR(13)&amp;O6)</f>
         <v/>
       </c>
-      <c r="P14" s="3" t="str">
+      <c r="P14" s="2" t="str">
         <f aca="false">O14&amp;IF(P6="","",CHAR(13)&amp;P6)</f>
         <v/>
       </c>
-      <c r="Q14" s="3" t="str">
+      <c r="Q14" s="2" t="str">
         <f aca="false">P14&amp;IF(Q6="","",CHAR(13)&amp;Q6)</f>
         <v/>
       </c>
-      <c r="R14" s="3" t="str">
+      <c r="R14" s="2" t="str">
         <f aca="false">Q14&amp;IF(R6="","",CHAR(13)&amp;R6)</f>
         <v/>
       </c>
-      <c r="S14" s="3" t="str">
+      <c r="S14" s="2" t="str">
         <f aca="false">R14&amp;IF(S6="","",CHAR(13)&amp;S6)</f>
         <v/>
       </c>
-      <c r="T14" s="3" t="str">
+      <c r="T14" s="2" t="str">
         <f aca="false">S14&amp;IF(T6="","",CHAR(13)&amp;T6)</f>
         <v/>
       </c>
-      <c r="U14" s="3" t="str">
+      <c r="U14" s="2" t="str">
         <f aca="false">T14&amp;IF(U6="","",CHAR(13)&amp;U6)</f>
         <v/>
       </c>
@@ -2785,87 +3407,87 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="str">
+      <c r="A15" s="2" t="str">
         <f aca="false">IF(B7="","",CHAR(13)&amp;"[")</f>
         <v/>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="2" t="str">
         <f aca="false">A15&amp;IF(B7="","",CHAR(13)&amp;B7)</f>
         <v/>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="2" t="str">
         <f aca="false">B15&amp;IF(C7="","",CHAR(13)&amp;C7)</f>
         <v/>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="2" t="str">
         <f aca="false">C15&amp;IF(D7="","",CHAR(13)&amp;D7)</f>
         <v/>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" s="2" t="str">
         <f aca="false">D15&amp;IF(E7="","",CHAR(13)&amp;E7)</f>
         <v/>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="2" t="str">
         <f aca="false">E15&amp;IF(F7="","",CHAR(13)&amp;F7)</f>
         <v/>
       </c>
-      <c r="G15" s="3" t="str">
+      <c r="G15" s="2" t="str">
         <f aca="false">F15&amp;IF(G7="","",CHAR(13)&amp;G7)</f>
         <v/>
       </c>
-      <c r="H15" s="3" t="str">
+      <c r="H15" s="2" t="str">
         <f aca="false">G15&amp;IF(H7="","",CHAR(13)&amp;H7)</f>
         <v/>
       </c>
-      <c r="I15" s="3" t="str">
+      <c r="I15" s="2" t="str">
         <f aca="false">H15&amp;IF(I7="","",CHAR(13)&amp;I7)</f>
         <v/>
       </c>
-      <c r="J15" s="3" t="str">
+      <c r="J15" s="2" t="str">
         <f aca="false">I15&amp;IF(J7="","",CHAR(13)&amp;J7)</f>
         <v/>
       </c>
-      <c r="K15" s="3" t="str">
+      <c r="K15" s="2" t="str">
         <f aca="false">J15&amp;IF(K7="","",CHAR(13)&amp;K7)</f>
         <v/>
       </c>
-      <c r="L15" s="3" t="str">
+      <c r="L15" s="2" t="str">
         <f aca="false">K15&amp;IF(L7="","",CHAR(13)&amp;L7)</f>
         <v/>
       </c>
-      <c r="M15" s="3" t="str">
+      <c r="M15" s="2" t="str">
         <f aca="false">L15&amp;IF(M7="","",CHAR(13)&amp;M7)</f>
         <v/>
       </c>
-      <c r="N15" s="3" t="str">
+      <c r="N15" s="2" t="str">
         <f aca="false">M15&amp;IF(N7="","",CHAR(13)&amp;N7)</f>
         <v/>
       </c>
-      <c r="O15" s="3" t="str">
+      <c r="O15" s="2" t="str">
         <f aca="false">N15&amp;IF(O7="","",CHAR(13)&amp;O7)</f>
         <v/>
       </c>
-      <c r="P15" s="3" t="str">
+      <c r="P15" s="2" t="str">
         <f aca="false">O15&amp;IF(P7="","",CHAR(13)&amp;P7)</f>
         <v/>
       </c>
-      <c r="Q15" s="3" t="str">
+      <c r="Q15" s="2" t="str">
         <f aca="false">P15&amp;IF(Q7="","",CHAR(13)&amp;Q7)</f>
         <v/>
       </c>
-      <c r="R15" s="3" t="str">
+      <c r="R15" s="2" t="str">
         <f aca="false">Q15&amp;IF(R7="","",CHAR(13)&amp;R7)</f>
         <v/>
       </c>
-      <c r="S15" s="3" t="str">
+      <c r="S15" s="2" t="str">
         <f aca="false">R15&amp;IF(S7="","",CHAR(13)&amp;S7)</f>
         <v/>
       </c>
-      <c r="T15" s="3" t="str">
+      <c r="T15" s="2" t="str">
         <f aca="false">S15&amp;IF(T7="","",CHAR(13)&amp;T7)</f>
         <v/>
       </c>
-      <c r="U15" s="3" t="str">
+      <c r="U15" s="2" t="str">
         <f aca="false">T15&amp;IF(U7="","",CHAR(13)&amp;U7)</f>
         <v/>
       </c>
@@ -2884,19 +3506,19 @@
 [ { "label": "full_left", "popup": {"relevant": [{"label":"page_up"}]} }, { "label": "full_right", "popup": {"relevant": [{"label":"page_down"}]} },-{ "label": ";", "popup": {"relevant": [{"label":":"}]} },-{ "label": "1", "popup": {"relevant": [{"label":"!"}]} },-{ "label": "2", "popup": {"relevant": [{"label":"@"}]} },-{ "label": "3", "popup": {"relevant": [{"label":"#"}]} },-{ "label": "4", "popup": {"relevant": [{"label":"$"}]} },-{ "label": "5", "popup": {"relevant": [{"label":"%"}]} },-{ "label": "6", "popup": {"relevant": [{"label":"^"}]} },-{ "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} },-{ "label": "8", "popup": {"relevant": [{"label":"*"}]} },-{ "label": "9", "popup": {"relevant": [{"label":"("}]} },-{ "label": "0", "popup": {"relevant": [{"label":")"}]} },-{ "label": "—", "popup": {"relevant": [{"label":"_"}]} },-{ "label": "=", "popup": {"relevant": [{"label":"+"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": ":"}, "capsLock": {"label": ":"}, "default": { "label": ";", "popup": {"relevant": [{"label":":"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "!"}, "capsLock": {"label": "!"}, "default": { "label": "1", "popup": {"relevant": [{"label":"!"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "@"}, "capsLock": {"label": "@"}, "default": { "label": "2", "popup": {"relevant": [{"label":"@"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "#"}, "capsLock": {"label": "#"}, "default": { "label": "3", "popup": {"relevant": [{"label":"#"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "$"}, "capsLock": {"label": "$"}, "default": { "label": "4", "popup": {"relevant": [{"label":"$"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "%"}, "capsLock": {"label": "%"}, "default": { "label": "5", "popup": {"relevant": [{"label":"%"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "^"}, "capsLock": {"label": "^"}, "default": { "label": "6", "popup": {"relevant": [{"label":"^"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "&amp;"}, "capsLock": {"label": "&amp;"}, "default": { "label": "7", "popup": {"relevant": [{"label":"&amp;"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "*"}, "capsLock": {"label": "*"}, "default": { "label": "8", "popup": {"relevant": [{"label":"*"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "("}, "capsLock": {"label": "("}, "default": { "label": "9", "popup": {"relevant": [{"label":"("}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": ")"}, "capsLock": {"label": ")"}, "default": { "label": "0", "popup": {"relevant": [{"label":")"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "_"}, "capsLock": {"label": "_"}, "default": { "label": "—", "popup": {"relevant": [{"label":"_"}]} } },+{ "$": "shift_state_selector", "shiftedManual": {"label": "+"}, "capsLock": {"label": "+"}, "default": { "label": "=", "popup": {"relevant": [{"label":"+"}]} } }, { "label": "select_word" }, { "label": "delete" } ],@@ -2944,7 +3566,7 @@
 { "label": "n", "popup": {"relevant": [{"label":"±"}]} }, { "label": "m", "popup": {"relevant": [{"label":"$$$"}]} }, { "label": "-", "popup": {"relevant": [{"label":"–"}]} },-{ "label": "?", "popup": {"relevant": [{"label":"…"}]} },+{ "$": "shift_state_selector", "shiftedManual": {"label": "?"}, "capsLock": {"label": "?"}, "default": { "label": "?", "popup": {"relevant": [{"label":"…"}]} } }, { "label": "down" }, { "label": "shift" } ]@@ -2954,7 +3576,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
